--- a/data/old_posteriors/no_elementary_skills/complex_model/leak/constrained/results_model2a_leak_constrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/leak/constrained/results_model2a_leak_constrained.xlsx
@@ -622,31 +622,31 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n" s="25">
-        <v>0.998834647751979</v>
+        <v>0.9985299348754908</v>
       </c>
       <c r="F3" t="n" s="25">
-        <v>0.9999774948426619</v>
+        <v>0.9999108235877171</v>
       </c>
       <c r="G3" t="n" s="25">
-        <v>0.9999998086596517</v>
+        <v>0.9999916891040699</v>
       </c>
       <c r="H3" t="n" s="25">
-        <v>0.9983341739281109</v>
+        <v>0.9968543071540885</v>
       </c>
       <c r="I3" t="n" s="25">
-        <v>0.9999969135970065</v>
+        <v>0.9999196765891426</v>
       </c>
       <c r="J3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999806123516712</v>
       </c>
       <c r="K3" t="n" s="25">
-        <v>0.9617026744447297</v>
+        <v>0.9213581650412617</v>
       </c>
       <c r="L3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9372418302474419</v>
       </c>
       <c r="M3" t="n" s="25">
-        <v>1.0</v>
+        <v>0.34404857988705895</v>
       </c>
       <c r="N3" t="n" s="25">
         <v>0.5</v>
@@ -657,31 +657,31 @@
         <v>2.0</v>
       </c>
       <c r="E4" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F4" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G4" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H4" t="n" s="25">
-        <v>0.9997620712931052</v>
+        <v>0.999472011888504</v>
       </c>
       <c r="I4" t="n" s="25">
-        <v>0.9999999999893996</v>
+        <v>0.9999999991604857</v>
       </c>
       <c r="J4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999927334</v>
       </c>
       <c r="K4" t="n" s="25">
-        <v>0.999802873949962</v>
+        <v>0.9991782825404358</v>
       </c>
       <c r="L4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996876700107</v>
       </c>
       <c r="M4" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999980842782994</v>
       </c>
       <c r="N4" t="n" s="25">
         <v>0.5</v>
@@ -692,31 +692,31 @@
         <v>3.0</v>
       </c>
       <c r="E5" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F5" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G5" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H5" t="n" s="25">
-        <v>0.9999581033467996</v>
+        <v>0.9998825849385926</v>
       </c>
       <c r="I5" t="n" s="25">
-        <v>0.9999999999999953</v>
+        <v>0.999999999998946</v>
       </c>
       <c r="J5" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K5" t="n" s="25">
-        <v>0.9999928941630244</v>
+        <v>0.9999480211019117</v>
       </c>
       <c r="L5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999986838</v>
       </c>
       <c r="M5" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999994551608</v>
       </c>
       <c r="N5" t="n" s="25">
         <v>0.5</v>
@@ -727,31 +727,31 @@
         <v>4.0</v>
       </c>
       <c r="E6" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F6" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G6" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H6" t="n" s="25">
-        <v>0.9999718803407678</v>
+        <v>0.9999163962624429</v>
       </c>
       <c r="I6" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999996321</v>
       </c>
       <c r="J6" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K6" t="n" s="25">
-        <v>0.9999991505669961</v>
+        <v>0.999991025336943</v>
       </c>
       <c r="L6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999528</v>
       </c>
       <c r="M6" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999915357</v>
       </c>
       <c r="N6" t="n" s="25">
         <v>0.5</v>
@@ -762,31 +762,31 @@
         <v>5.0</v>
       </c>
       <c r="E7" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F7" t="n" s="25">
-        <v>0.9999988765996944</v>
+        <v>0.9999946832472189</v>
       </c>
       <c r="G7" t="n" s="25">
-        <v>0.9999999999486849</v>
+        <v>0.9999999954088936</v>
       </c>
       <c r="H7" t="n" s="25">
-        <v>0.9999192208462199</v>
+        <v>0.9997913414369297</v>
       </c>
       <c r="I7" t="n" s="25">
-        <v>0.9999999999967022</v>
+        <v>0.9999999995982003</v>
       </c>
       <c r="J7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999988803</v>
       </c>
       <c r="K7" t="n" s="25">
-        <v>0.9999650903599376</v>
+        <v>0.9997612507431567</v>
       </c>
       <c r="L7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999905529923</v>
       </c>
       <c r="M7" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998413746204</v>
       </c>
       <c r="N7" t="n" s="25">
         <v>0.5</v>
@@ -797,31 +797,31 @@
         <v>6.0</v>
       </c>
       <c r="E8" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F8" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G8" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H8" t="n" s="25">
-        <v>0.9994717829145038</v>
+        <v>0.9989726808162409</v>
       </c>
       <c r="I8" t="n" s="25">
-        <v>0.9999999998483848</v>
+        <v>0.9999999929138563</v>
       </c>
       <c r="J8" t="n" s="25">
-        <v>0.9999999999981374</v>
+        <v>0.9999999960967426</v>
       </c>
       <c r="K8" t="n" s="25">
-        <v>0.9836601549762498</v>
+        <v>0.971988208711494</v>
       </c>
       <c r="L8" t="n" s="25">
-        <v>0.9994760634289366</v>
+        <v>0.9928863856161939</v>
       </c>
       <c r="M8" t="n" s="25">
-        <v>0.9999001044793586</v>
+        <v>0.9951420085911447</v>
       </c>
       <c r="N8" t="n" s="25">
         <v>0.5</v>
@@ -832,31 +832,31 @@
         <v>7.0</v>
       </c>
       <c r="E9" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F9" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G9" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H9" t="n" s="25">
-        <v>0.9999826940146861</v>
+        <v>0.9999441525213151</v>
       </c>
       <c r="I9" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999998823</v>
       </c>
       <c r="J9" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K9" t="n" s="25">
-        <v>0.9999999191054587</v>
+        <v>0.9999986023746333</v>
       </c>
       <c r="L9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="M9" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999997291</v>
       </c>
       <c r="N9" t="n" s="25">
         <v>0.5</v>
@@ -867,31 +867,31 @@
         <v>8.0</v>
       </c>
       <c r="E10" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F10" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G10" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H10" t="n" s="25">
-        <v>0.9998445019435029</v>
+        <v>0.999629894180747</v>
       </c>
       <c r="I10" t="n" s="25">
-        <v>0.9999999999972492</v>
+        <v>0.9999999997182117</v>
       </c>
       <c r="J10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999997792</v>
       </c>
       <c r="K10" t="n" s="25">
-        <v>0.9999789190977506</v>
+        <v>0.9998645414843833</v>
       </c>
       <c r="L10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999984743289</v>
       </c>
       <c r="M10" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999581414185</v>
       </c>
       <c r="N10" t="n" s="25">
         <v>0.5</v>
@@ -902,31 +902,31 @@
         <v>9.0</v>
       </c>
       <c r="E11" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F11" t="n" s="25">
-        <v>0.9999970964744751</v>
+        <v>0.9999881600876507</v>
       </c>
       <c r="G11" t="n" s="25">
-        <v>0.9999999671044523</v>
+        <v>0.999998924505708</v>
       </c>
       <c r="H11" t="n" s="25">
-        <v>0.9999707121051321</v>
+        <v>0.9999137323534039</v>
       </c>
       <c r="I11" t="n" s="25">
-        <v>0.9999999998942396</v>
+        <v>0.9999999890613457</v>
       </c>
       <c r="J11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999996239407</v>
       </c>
       <c r="K11" t="n" s="25">
-        <v>0.9999811942116551</v>
+        <v>0.9998122837123884</v>
       </c>
       <c r="L11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999997974226486</v>
       </c>
       <c r="M11" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999932550697082</v>
       </c>
       <c r="N11" t="n" s="25">
         <v>0.5</v>
@@ -937,31 +937,31 @@
         <v>10.0</v>
       </c>
       <c r="E12" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F12" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G12" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H12" t="n" s="25">
-        <v>0.9999826940146861</v>
+        <v>0.9999441525213151</v>
       </c>
       <c r="I12" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999998823</v>
       </c>
       <c r="J12" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K12" t="n" s="25">
-        <v>0.9999999191054587</v>
+        <v>0.9999986023746333</v>
       </c>
       <c r="L12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999996</v>
       </c>
       <c r="M12" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999997291</v>
       </c>
       <c r="N12" t="n" s="25">
         <v>0.5</v>
@@ -972,31 +972,31 @@
         <v>11.0</v>
       </c>
       <c r="E13" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F13" t="n" s="25">
-        <v>0.9995833450526281</v>
+        <v>0.9989762473559631</v>
       </c>
       <c r="G13" t="n" s="25">
-        <v>0.7615878395842486</v>
+        <v>0.6648594321333955</v>
       </c>
       <c r="H13" t="n" s="25">
-        <v>0.9999827749446082</v>
+        <v>0.9999396230270371</v>
       </c>
       <c r="I13" t="n" s="25">
-        <v>0.9999998955866093</v>
+        <v>0.9999967124817093</v>
       </c>
       <c r="J13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.55658901413324</v>
       </c>
       <c r="K13" t="n" s="25">
-        <v>0.999999830758906</v>
+        <v>0.9999948237342133</v>
       </c>
       <c r="L13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999984382835997</v>
       </c>
       <c r="M13" t="n" s="25">
-        <v>1.0</v>
+        <v>0.02802812337901185</v>
       </c>
       <c r="N13" t="n" s="25">
         <v>0.5</v>
@@ -1007,31 +1007,31 @@
         <v>12.0</v>
       </c>
       <c r="E14" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F14" t="n" s="25">
-        <v>0.9999740352606881</v>
+        <v>0.9999252381729986</v>
       </c>
       <c r="G14" t="n" s="25">
-        <v>0.9716302865032025</v>
+        <v>0.9493330969409565</v>
       </c>
       <c r="H14" t="n" s="25">
-        <v>0.9999550439072179</v>
+        <v>0.9998784073314887</v>
       </c>
       <c r="I14" t="n" s="25">
-        <v>0.999921703672696</v>
+        <v>0.9996342395307793</v>
       </c>
       <c r="J14" t="n" s="25">
-        <v>0.9737262536207626</v>
+        <v>0.8239149602283928</v>
       </c>
       <c r="K14" t="n" s="25">
-        <v>0.9287589741187762</v>
+        <v>0.8912582166602993</v>
       </c>
       <c r="L14" t="n" s="25">
-        <v>0.8983434937349059</v>
+        <v>0.6166627118611294</v>
       </c>
       <c r="M14" t="n" s="25">
-        <v>2.8266854911132696E-9</v>
+        <v>7.905666866565522E-11</v>
       </c>
       <c r="N14" t="n" s="25">
         <v>0.5</v>
@@ -1042,31 +1042,31 @@
         <v>13.0</v>
       </c>
       <c r="E15" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F15" t="n" s="25">
-        <v>0.999994624959523</v>
+        <v>0.999979360256623</v>
       </c>
       <c r="G15" t="n" s="25">
-        <v>0.9999933710349128</v>
+        <v>0.9998591748773409</v>
       </c>
       <c r="H15" t="n" s="25">
-        <v>0.9997620712931052</v>
+        <v>0.999472011888504</v>
       </c>
       <c r="I15" t="n" s="25">
-        <v>0.999989918371019</v>
+        <v>0.999776723358275</v>
       </c>
       <c r="J15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9992136479807389</v>
       </c>
       <c r="K15" t="n" s="25">
-        <v>0.9858881906650347</v>
+        <v>0.9574274480241222</v>
       </c>
       <c r="L15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9700249938580698</v>
       </c>
       <c r="M15" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0282612468212398</v>
       </c>
       <c r="N15" t="n" s="25">
         <v>0.5</v>
@@ -1077,31 +1077,31 @@
         <v>14.0</v>
       </c>
       <c r="E16" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F16" t="n" s="25">
-        <v>0.9999947679299406</v>
+        <v>0.99998096948799</v>
       </c>
       <c r="G16" t="n" s="25">
-        <v>0.999999978790006</v>
+        <v>0.9999996120948068</v>
       </c>
       <c r="H16" t="n" s="25">
-        <v>0.9999921280173393</v>
+        <v>0.999971818822652</v>
       </c>
       <c r="I16" t="n" s="25">
-        <v>0.9999999999999665</v>
+        <v>0.9999999999950087</v>
       </c>
       <c r="J16" t="n" s="25">
-        <v>0.9999999999991915</v>
+        <v>0.9999999986991202</v>
       </c>
       <c r="K16" t="n" s="25">
-        <v>0.9999999575944927</v>
+        <v>0.9999992045189231</v>
       </c>
       <c r="L16" t="n" s="25">
-        <v>0.9999999999975233</v>
+        <v>0.9999999962487144</v>
       </c>
       <c r="M16" t="n" s="25">
-        <v>0.9999998496467335</v>
+        <v>0.9999807658828904</v>
       </c>
       <c r="N16" t="n" s="25">
         <v>0.5</v>
@@ -1112,31 +1112,31 @@
         <v>15.0</v>
       </c>
       <c r="E17" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F17" t="n" s="25">
-        <v>0.9999992567651964</v>
+        <v>0.9999962775878113</v>
       </c>
       <c r="G17" t="n" s="25">
-        <v>0.9999999999978536</v>
+        <v>0.9999999997228038</v>
       </c>
       <c r="H17" t="n" s="25">
-        <v>0.999915953877498</v>
+        <v>0.9997853582321364</v>
       </c>
       <c r="I17" t="n" s="25">
-        <v>0.9999999999998763</v>
+        <v>0.9999999999820113</v>
       </c>
       <c r="J17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999979</v>
       </c>
       <c r="K17" t="n" s="25">
-        <v>0.9999862985700646</v>
+        <v>0.9999117225853336</v>
       </c>
       <c r="L17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999998997572</v>
       </c>
       <c r="M17" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999966695075</v>
       </c>
       <c r="N17" t="n" s="25">
         <v>0.5</v>
@@ -1147,31 +1147,31 @@
         <v>16.0</v>
       </c>
       <c r="E18" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F18" t="n" s="25">
-        <v>0.9999996690005398</v>
+        <v>0.9999981548122778</v>
       </c>
       <c r="G18" t="n" s="25">
-        <v>0.9999999999999728</v>
+        <v>0.9999999999940038</v>
       </c>
       <c r="H18" t="n" s="25">
-        <v>0.9999917985167472</v>
+        <v>0.999970976304147</v>
       </c>
       <c r="I18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999942</v>
       </c>
       <c r="J18" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K18" t="n" s="25">
-        <v>0.9999999524948464</v>
+        <v>0.999999162652263</v>
       </c>
       <c r="L18" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="M18" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999718</v>
       </c>
       <c r="N18" t="n" s="25">
         <v>0.5</v>
@@ -1182,31 +1182,31 @@
         <v>17.0</v>
       </c>
       <c r="E19" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F19" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G19" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H19" t="n" s="25">
-        <v>0.9999718803407678</v>
+        <v>0.9999163962624429</v>
       </c>
       <c r="I19" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999996321</v>
       </c>
       <c r="J19" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K19" t="n" s="25">
-        <v>0.9999991505669961</v>
+        <v>0.999991025336943</v>
       </c>
       <c r="L19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999528</v>
       </c>
       <c r="M19" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999915357</v>
       </c>
       <c r="N19" t="n" s="25">
         <v>0.5</v>
@@ -1217,31 +1217,31 @@
         <v>18.0</v>
       </c>
       <c r="E20" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F20" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G20" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H20" t="n" s="25">
-        <v>0.9999581033467996</v>
+        <v>0.9998825849385926</v>
       </c>
       <c r="I20" t="n" s="25">
-        <v>0.9999999999999953</v>
+        <v>0.999999999998946</v>
       </c>
       <c r="J20" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K20" t="n" s="25">
-        <v>0.9999928941630244</v>
+        <v>0.9999480211019117</v>
       </c>
       <c r="L20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999999986838</v>
       </c>
       <c r="M20" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999994551608</v>
       </c>
       <c r="N20" t="n" s="25">
         <v>0.5</v>
@@ -1252,31 +1252,31 @@
         <v>19.0</v>
       </c>
       <c r="E21" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F21" t="n" s="25">
-        <v>0.9999996690005398</v>
+        <v>0.9999981548122778</v>
       </c>
       <c r="G21" t="n" s="25">
-        <v>0.9999999999999728</v>
+        <v>0.9999999999940038</v>
       </c>
       <c r="H21" t="n" s="25">
-        <v>0.9999947661610445</v>
+        <v>0.9999801377312426</v>
       </c>
       <c r="I21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999981</v>
       </c>
       <c r="J21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K21" t="n" s="25">
-        <v>0.9999999949321948</v>
+        <v>0.9999998627717568</v>
       </c>
       <c r="L21" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="M21" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999994</v>
       </c>
       <c r="N21" t="n" s="25">
         <v>0.5</v>
@@ -1287,31 +1287,31 @@
         <v>20.0</v>
       </c>
       <c r="E22" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F22" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G22" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H22" t="n" s="25">
-        <v>0.9999729961066967</v>
+        <v>0.9999187844654405</v>
       </c>
       <c r="I22" t="n" s="25">
-        <v>0.9999999999999988</v>
+        <v>0.9999999999996477</v>
       </c>
       <c r="J22" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K22" t="n" s="25">
-        <v>0.9999992417475848</v>
+        <v>0.9999914739247486</v>
       </c>
       <c r="L22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999333</v>
       </c>
       <c r="M22" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999878658</v>
       </c>
       <c r="N22" t="n" s="25">
         <v>0.5</v>
@@ -1322,31 +1322,31 @@
         <v>21.0</v>
       </c>
       <c r="E23" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F23" t="n" s="25">
-        <v>0.9999996690005398</v>
+        <v>0.9999981548122778</v>
       </c>
       <c r="G23" t="n" s="25">
-        <v>0.9999999999999728</v>
+        <v>0.9999999999940038</v>
       </c>
       <c r="H23" t="n" s="25">
-        <v>0.9999871917634247</v>
+        <v>0.9999577492040227</v>
       </c>
       <c r="I23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999828</v>
       </c>
       <c r="J23" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K23" t="n" s="25">
-        <v>0.9999995547079492</v>
+        <v>0.9999948913807242</v>
       </c>
       <c r="L23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999947</v>
       </c>
       <c r="M23" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999987375</v>
       </c>
       <c r="N23" t="n" s="25">
         <v>0.5</v>
@@ -1357,31 +1357,31 @@
         <v>22.0</v>
       </c>
       <c r="E24" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F24" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G24" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H24" t="n" s="25">
-        <v>0.9999729961066967</v>
+        <v>0.9999187844654405</v>
       </c>
       <c r="I24" t="n" s="25">
-        <v>0.9999999999999988</v>
+        <v>0.9999999999996477</v>
       </c>
       <c r="J24" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K24" t="n" s="25">
-        <v>0.9999992417475848</v>
+        <v>0.9999914739247486</v>
       </c>
       <c r="L24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999333</v>
       </c>
       <c r="M24" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999878658</v>
       </c>
       <c r="N24" t="n" s="25">
         <v>0.5</v>
@@ -1392,31 +1392,31 @@
         <v>23.0</v>
       </c>
       <c r="E25" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F25" t="n" s="25">
-        <v>0.9999992245864758</v>
+        <v>0.9999961527760967</v>
       </c>
       <c r="G25" t="n" s="25">
-        <v>0.9999999999935103</v>
+        <v>0.9999999992671217</v>
       </c>
       <c r="H25" t="n" s="25">
-        <v>0.9999581033467996</v>
+        <v>0.9998825849385926</v>
       </c>
       <c r="I25" t="n" s="25">
-        <v>0.9999999999998633</v>
+        <v>0.99999999997539</v>
       </c>
       <c r="J25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999852</v>
       </c>
       <c r="K25" t="n" s="25">
-        <v>0.9999797122000758</v>
+        <v>0.9998518809621295</v>
       </c>
       <c r="L25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999991196907</v>
       </c>
       <c r="M25" t="n" s="25">
-        <v>1.0</v>
+        <v>0.999999981974313</v>
       </c>
       <c r="N25" t="n" s="25">
         <v>0.5</v>
@@ -1427,31 +1427,31 @@
         <v>24.0</v>
       </c>
       <c r="E26" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F26" t="n" s="25">
-        <v>0.9944311224106518</v>
+        <v>0.9869546310124966</v>
       </c>
       <c r="G26" t="n" s="25">
-        <v>0.932706753824361</v>
+        <v>0.826630225651762</v>
       </c>
       <c r="H26" t="n" s="25">
-        <v>0.9959073697012667</v>
+        <v>0.992116635485438</v>
       </c>
       <c r="I26" t="n" s="25">
-        <v>0.9888053460546645</v>
+        <v>0.9662551575825216</v>
       </c>
       <c r="J26" t="n" s="25">
-        <v>1.0</v>
+        <v>0.6314054386546676</v>
       </c>
       <c r="K26" t="n" s="25">
-        <v>0.8668715817663124</v>
+        <v>0.8261258566915817</v>
       </c>
       <c r="L26" t="n" s="25">
-        <v>1.0</v>
+        <v>0.12160255967364018</v>
       </c>
       <c r="M26" t="n" s="25">
-        <v>1.0</v>
+        <v>1.842409063825045E-9</v>
       </c>
       <c r="N26" t="n" s="25">
         <v>0.5</v>
@@ -1462,31 +1462,31 @@
         <v>25.0</v>
       </c>
       <c r="E27" t="n" s="25">
-        <v>0.9991502015874535</v>
+        <v>0.9988880738452963</v>
       </c>
       <c r="F27" t="n" s="25">
-        <v>0.9997093668072317</v>
+        <v>0.9992593133048573</v>
       </c>
       <c r="G27" t="n" s="25">
-        <v>0.8328483695461636</v>
+        <v>0.776846726383653</v>
       </c>
       <c r="H27" t="n" s="25">
-        <v>0.9998590683691069</v>
+        <v>0.9996254113302714</v>
       </c>
       <c r="I27" t="n" s="25">
-        <v>0.9994745057357706</v>
+        <v>0.9980806893929393</v>
       </c>
       <c r="J27" t="n" s="25">
-        <v>0.10645750025573551</v>
+        <v>0.024842492133238078</v>
       </c>
       <c r="K27" t="n" s="25">
-        <v>0.9617736633202285</v>
+        <v>0.9326932465140206</v>
       </c>
       <c r="L27" t="n" s="25">
-        <v>0.9246880474358085</v>
+        <v>0.5543749891659709</v>
       </c>
       <c r="M27" t="n" s="25">
-        <v>1.1311948379614885E-12</v>
+        <v>3.035501670107739E-14</v>
       </c>
       <c r="N27" t="n" s="25">
         <v>0.5</v>
@@ -1497,31 +1497,31 @@
         <v>26.0</v>
       </c>
       <c r="E28" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F28" t="n" s="25">
-        <v>0.9999983742388621</v>
+        <v>0.9999926622935306</v>
       </c>
       <c r="G28" t="n" s="25">
-        <v>0.999999999594252</v>
+        <v>0.9999999712450657</v>
       </c>
       <c r="H28" t="n" s="25">
-        <v>0.9998445019435029</v>
+        <v>0.999629894180747</v>
       </c>
       <c r="I28" t="n" s="25">
-        <v>0.9999999999203251</v>
+        <v>0.9999999934374291</v>
       </c>
       <c r="J28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999153677</v>
       </c>
       <c r="K28" t="n" s="25">
-        <v>0.9999398607272513</v>
+        <v>0.9996149589688659</v>
       </c>
       <c r="L28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999998980232987</v>
       </c>
       <c r="M28" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999985992735471</v>
       </c>
       <c r="N28" t="n" s="25">
         <v>0.5</v>
@@ -1532,31 +1532,31 @@
         <v>27.0</v>
       </c>
       <c r="E29" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F29" t="n" s="25">
-        <v>0.999997759630215</v>
+        <v>0.9999902756318655</v>
       </c>
       <c r="G29" t="n" s="25">
-        <v>0.9999999989390521</v>
+        <v>0.9999999319411731</v>
       </c>
       <c r="H29" t="n" s="25">
-        <v>0.9986060048548184</v>
+        <v>0.9975906899879465</v>
       </c>
       <c r="I29" t="n" s="25">
-        <v>0.9999999722822046</v>
+        <v>0.9999992855581679</v>
       </c>
       <c r="J29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999995655902094</v>
       </c>
       <c r="K29" t="n" s="25">
-        <v>0.9932821068177417</v>
+        <v>0.9859846950926484</v>
       </c>
       <c r="L29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9974562608436945</v>
       </c>
       <c r="M29" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9963391842957463</v>
       </c>
       <c r="N29" t="n" s="25">
         <v>0.5</v>
@@ -1567,31 +1567,31 @@
         <v>28.0</v>
       </c>
       <c r="E30" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F30" t="n" s="25">
-        <v>0.9565009945029369</v>
+        <v>0.9313577254044042</v>
       </c>
       <c r="G30" t="n" s="25">
-        <v>0.42791351569085323</v>
+        <v>0.268233824650972</v>
       </c>
       <c r="H30" t="n" s="25">
-        <v>0.9626557734978636</v>
+        <v>0.9485202122745726</v>
       </c>
       <c r="I30" t="n" s="25">
-        <v>0.839093153664989</v>
+        <v>0.707643954572533</v>
       </c>
       <c r="J30" t="n" s="25">
-        <v>1.2093034869086743E-5</v>
+        <v>1.1506031998999586E-6</v>
       </c>
       <c r="K30" t="n" s="25">
-        <v>0.6526613382119393</v>
+        <v>0.6280520875216131</v>
       </c>
       <c r="L30" t="n" s="25">
-        <v>4.760899474558601E-5</v>
+        <v>2.0020650243940162E-5</v>
       </c>
       <c r="M30" t="n" s="25">
-        <v>6.445476948136594E-23</v>
+        <v>5.936679621121393E-24</v>
       </c>
       <c r="N30" t="n" s="25">
         <v>0.5</v>
@@ -1602,31 +1602,31 @@
         <v>29.0</v>
       </c>
       <c r="E31" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F31" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G31" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H31" t="n" s="25">
-        <v>0.999981971271578</v>
+        <v>0.9999424880645331</v>
       </c>
       <c r="I31" t="n" s="25">
-        <v>0.9999999999999997</v>
+        <v>0.9999999999998772</v>
       </c>
       <c r="J31" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K31" t="n" s="25">
-        <v>0.9999999093772296</v>
+        <v>0.9999985288199671</v>
       </c>
       <c r="L31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999998</v>
       </c>
       <c r="M31" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999998109</v>
       </c>
       <c r="N31" t="n" s="25">
         <v>0.5</v>
@@ -1637,31 +1637,31 @@
         <v>30.0</v>
       </c>
       <c r="E32" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F32" t="n" s="25">
-        <v>0.9333114141717822</v>
+        <v>0.9049754183491269</v>
       </c>
       <c r="G32" t="n" s="25">
-        <v>0.13012934991956532</v>
+        <v>0.08249288868808036</v>
       </c>
       <c r="H32" t="n" s="25">
-        <v>0.9504343903409079</v>
+        <v>0.9353978708626884</v>
       </c>
       <c r="I32" t="n" s="25">
-        <v>0.7227841912831671</v>
+        <v>0.5475556306666196</v>
       </c>
       <c r="J32" t="n" s="25">
-        <v>2.631353091319334E-7</v>
+        <v>3.000542173614786E-8</v>
       </c>
       <c r="K32" t="n" s="25">
-        <v>0.6526554516473303</v>
+        <v>0.6280477607590212</v>
       </c>
       <c r="L32" t="n" s="25">
-        <v>1.3283994195382614E-5</v>
+        <v>5.433820924453927E-6</v>
       </c>
       <c r="M32" t="n" s="25">
-        <v>6.687552139380557E-25</v>
+        <v>7.465435843400187E-26</v>
       </c>
       <c r="N32" t="n" s="25">
         <v>0.5</v>
@@ -1672,31 +1672,31 @@
         <v>31.0</v>
       </c>
       <c r="E33" t="n" s="25">
-        <v>0.04309073531118564</v>
+        <v>0.04221532988277146</v>
       </c>
       <c r="F33" t="n" s="25">
-        <v>4.882981763958871E-4</v>
+        <v>4.120979093593666E-4</v>
       </c>
       <c r="G33" t="n" s="25">
-        <v>4.5085513174971815E-7</v>
+        <v>3.2248730185827887E-7</v>
       </c>
       <c r="H33" t="n" s="25">
-        <v>0.001394867936238198</v>
+        <v>0.0011772437483853029</v>
       </c>
       <c r="I33" t="n" s="25">
-        <v>4.624652599198451E-8</v>
+        <v>1.6487036159903315E-8</v>
       </c>
       <c r="J33" t="n" s="25">
-        <v>3.203691599732588E-17</v>
+        <v>6.087074355334163E-18</v>
       </c>
       <c r="K33" t="n" s="25">
-        <v>7.78151454136266E-6</v>
+        <v>5.349459888100745E-6</v>
       </c>
       <c r="L33" t="n" s="25">
-        <v>4.472549986309829E-16</v>
+        <v>7.260006796005532E-17</v>
       </c>
       <c r="M33" t="n" s="25">
-        <v>1.6084009973628492E-36</v>
+        <v>1.407108744810687E-37</v>
       </c>
       <c r="N33" t="n" s="25">
         <v>0.5</v>
@@ -1707,31 +1707,31 @@
         <v>32.0</v>
       </c>
       <c r="E34" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F34" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G34" t="n" s="25">
-        <v>0.28421246311974513</v>
+        <v>0.2175096083913821</v>
       </c>
       <c r="H34" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I34" t="n" s="25">
-        <v>0.9864194064182489</v>
+        <v>0.9642494231194635</v>
       </c>
       <c r="J34" t="n" s="25">
-        <v>5.472628727337851E-5</v>
+        <v>1.1280772209637084E-5</v>
       </c>
       <c r="K34" t="n" s="25">
-        <v>0.8659790256913743</v>
+        <v>0.8243588853267616</v>
       </c>
       <c r="L34" t="n" s="25">
-        <v>0.016032860734538117</v>
+        <v>0.0032659680381539775</v>
       </c>
       <c r="M34" t="n" s="25">
-        <v>3.367103016223496E-20</v>
+        <v>2.4764213951429273E-21</v>
       </c>
       <c r="N34" t="n" s="25">
         <v>0.5</v>
@@ -1742,31 +1742,31 @@
         <v>33.0</v>
       </c>
       <c r="E35" t="n" s="25">
-        <v>0.003632585021353756</v>
+        <v>0.003589746260279955</v>
       </c>
       <c r="F35" t="n" s="25">
-        <v>1.2382752618780773E-6</v>
+        <v>1.0763700430898162E-6</v>
       </c>
       <c r="G35" t="n" s="25">
-        <v>3.0121573900724494E-10</v>
+        <v>1.919349285143836E-10</v>
       </c>
       <c r="H35" t="n" s="25">
-        <v>3.5379194425277422E-6</v>
+        <v>3.0753360511802148E-6</v>
       </c>
       <c r="I35" t="n" s="25">
-        <v>1.0647645926606431E-14</v>
+        <v>4.834762743262384E-15</v>
       </c>
       <c r="J35" t="n" s="25">
-        <v>4.561145138482503E-26</v>
+        <v>9.660948070088088E-27</v>
       </c>
       <c r="K35" t="n" s="25">
-        <v>2.7435044154538125E-10</v>
+        <v>2.330232719107972E-10</v>
       </c>
       <c r="L35" t="n" s="25">
-        <v>3.4033806018696136E-27</v>
+        <v>1.467033679526406E-27</v>
       </c>
       <c r="M35" t="n" s="25">
-        <v>6.27231102990777E-50</v>
+        <v>1.2663334253626261E-50</v>
       </c>
       <c r="N35" t="n" s="25">
         <v>0.5</v>
@@ -1777,31 +1777,31 @@
         <v>34.0</v>
       </c>
       <c r="E36" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F36" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G36" t="n" s="25">
-        <v>0.2842093528892021</v>
+        <v>0.2175081986872824</v>
       </c>
       <c r="H36" t="n" s="25">
-        <v>0.9941947667940023</v>
+        <v>0.9894077807465312</v>
       </c>
       <c r="I36" t="n" s="25">
-        <v>0.9864070314650925</v>
+        <v>0.9642339457616126</v>
       </c>
       <c r="J36" t="n" s="25">
-        <v>2.4627570549532173E-5</v>
+        <v>5.0763789903468E-6</v>
       </c>
       <c r="K36" t="n" s="25">
-        <v>0.7267686339444932</v>
+        <v>0.6971941805231897</v>
       </c>
       <c r="L36" t="n" s="25">
-        <v>5.688182592430624E-4</v>
+        <v>2.216056607544911E-4</v>
       </c>
       <c r="M36" t="n" s="25">
-        <v>5.876456341371494E-23</v>
+        <v>8.341641765660323E-24</v>
       </c>
       <c r="N36" t="n" s="25">
         <v>0.5</v>
@@ -1812,31 +1812,31 @@
         <v>35.0</v>
       </c>
       <c r="E37" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F37" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G37" t="n" s="25">
-        <v>0.28421246311974513</v>
+        <v>0.2175096083913821</v>
       </c>
       <c r="H37" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I37" t="n" s="25">
-        <v>0.9864194064182489</v>
+        <v>0.9642494231194635</v>
       </c>
       <c r="J37" t="n" s="25">
-        <v>5.472628727337851E-5</v>
+        <v>1.1280772209637084E-5</v>
       </c>
       <c r="K37" t="n" s="25">
-        <v>0.8659790256913743</v>
+        <v>0.8243588853267616</v>
       </c>
       <c r="L37" t="n" s="25">
-        <v>0.016032860734538117</v>
+        <v>0.0032659680381539775</v>
       </c>
       <c r="M37" t="n" s="25">
-        <v>3.367103016223496E-20</v>
+        <v>2.4764213951429273E-21</v>
       </c>
       <c r="N37" t="n" s="25">
         <v>0.5</v>
@@ -1847,31 +1847,31 @@
         <v>36.0</v>
       </c>
       <c r="E38" t="n" s="25">
-        <v>0.9990639231959617</v>
+        <v>0.9987885661128864</v>
       </c>
       <c r="F38" t="n" s="25">
-        <v>0.998360824272921</v>
+        <v>0.9957795217909281</v>
       </c>
       <c r="G38" t="n" s="25">
-        <v>0.9613628681741705</v>
+        <v>0.8646024186453977</v>
       </c>
       <c r="H38" t="n" s="25">
-        <v>0.9995545137465718</v>
+        <v>0.9988631753422158</v>
       </c>
       <c r="I38" t="n" s="25">
-        <v>0.999877876209308</v>
+        <v>0.9982053863876863</v>
       </c>
       <c r="J38" t="n" s="25">
-        <v>0.9980997114451429</v>
+        <v>0.9506422392120745</v>
       </c>
       <c r="K38" t="n" s="25">
-        <v>0.9978249069341252</v>
+        <v>0.9885249468485767</v>
       </c>
       <c r="L38" t="n" s="25">
-        <v>0.9995862274814243</v>
+        <v>0.9930184863503524</v>
       </c>
       <c r="M38" t="n" s="25">
-        <v>0.007083220906961627</v>
+        <v>5.764801435710343E-5</v>
       </c>
       <c r="N38" t="n" s="25">
         <v>0.5</v>
@@ -1882,31 +1882,31 @@
         <v>37.0</v>
       </c>
       <c r="E39" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F39" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G39" t="n" s="25">
-        <v>0.28421246311974513</v>
+        <v>0.2175096083913821</v>
       </c>
       <c r="H39" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I39" t="n" s="25">
-        <v>0.9864194064182489</v>
+        <v>0.9642494231194635</v>
       </c>
       <c r="J39" t="n" s="25">
-        <v>5.472628727337851E-5</v>
+        <v>1.1280772209637084E-5</v>
       </c>
       <c r="K39" t="n" s="25">
-        <v>0.8659790256913743</v>
+        <v>0.8243588853267616</v>
       </c>
       <c r="L39" t="n" s="25">
-        <v>0.016032860734538117</v>
+        <v>0.0032659680381539767</v>
       </c>
       <c r="M39" t="n" s="25">
-        <v>3.3671030162234946E-20</v>
+        <v>2.476421395142926E-21</v>
       </c>
       <c r="N39" t="n" s="25">
         <v>0.5</v>
@@ -1917,31 +1917,31 @@
         <v>38.0</v>
       </c>
       <c r="E40" t="n" s="25">
-        <v>0.9988615211274295</v>
+        <v>0.998559648417734</v>
       </c>
       <c r="F40" t="n" s="25">
-        <v>0.959263647112137</v>
+        <v>0.9346255548458329</v>
       </c>
       <c r="G40" t="n" s="25">
-        <v>0.10643733218782757</v>
+        <v>0.07697145998077025</v>
       </c>
       <c r="H40" t="n" s="25">
-        <v>0.9846410318793302</v>
+        <v>0.9749737771873496</v>
       </c>
       <c r="I40" t="n" s="25">
-        <v>0.917068408714306</v>
+        <v>0.8185674084139232</v>
       </c>
       <c r="J40" t="n" s="25">
-        <v>4.021083587607617E-7</v>
+        <v>7.802604113917886E-8</v>
       </c>
       <c r="K40" t="n" s="25">
-        <v>0.8490689068785595</v>
+        <v>0.805676319438214</v>
       </c>
       <c r="L40" t="n" s="25">
-        <v>0.0012234587770066474</v>
+        <v>2.3399966259866298E-4</v>
       </c>
       <c r="M40" t="n" s="25">
-        <v>2.805583149320191E-23</v>
+        <v>2.347605398591629E-24</v>
       </c>
       <c r="N40" t="n" s="25">
         <v>0.5</v>
@@ -1952,31 +1952,31 @@
         <v>39.0</v>
       </c>
       <c r="E41" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F41" t="n" s="25">
-        <v>0.9999917146669811</v>
+        <v>0.999965314316209</v>
       </c>
       <c r="G41" t="n" s="25">
-        <v>0.9999999992162749</v>
+        <v>0.9999999593568621</v>
       </c>
       <c r="H41" t="n" s="25">
-        <v>0.9999655761755819</v>
+        <v>0.9998893241025596</v>
       </c>
       <c r="I41" t="n" s="25">
-        <v>0.9999999999998761</v>
+        <v>0.9999999999744648</v>
       </c>
       <c r="J41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999433</v>
       </c>
       <c r="K41" t="n" s="25">
-        <v>0.9999998382150549</v>
+        <v>0.9999972051816649</v>
       </c>
       <c r="L41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999953244</v>
       </c>
       <c r="M41" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999964359577</v>
       </c>
       <c r="N41" t="n" s="25">
         <v>0.5</v>
@@ -1987,31 +1987,31 @@
         <v>40.0</v>
       </c>
       <c r="E42" t="n" s="25">
-        <v>0.8697595718349416</v>
+        <v>0.8539303764952847</v>
       </c>
       <c r="F42" t="n" s="25">
-        <v>0.13336617614302407</v>
+        <v>0.1113036235666138</v>
       </c>
       <c r="G42" t="n" s="25">
-        <v>0.004615656210850259</v>
+        <v>0.002162909255355916</v>
       </c>
       <c r="H42" t="n" s="25">
-        <v>0.26598485982757</v>
+        <v>0.23212475648070371</v>
       </c>
       <c r="I42" t="n" s="25">
-        <v>3.1088717730153444E-4</v>
+        <v>1.2599486416865562E-4</v>
       </c>
       <c r="J42" t="n" s="25">
-        <v>9.575290505411132E-14</v>
+        <v>1.3313096516167966E-14</v>
       </c>
       <c r="K42" t="n" s="25">
-        <v>0.0017269087638622197</v>
+        <v>0.0014074796198428078</v>
       </c>
       <c r="L42" t="n" s="25">
-        <v>3.8481109318084115E-15</v>
+        <v>1.4131035543564212E-15</v>
       </c>
       <c r="M42" t="n" s="25">
-        <v>1.7913142155784374E-36</v>
+        <v>2.4256851436586592E-37</v>
       </c>
       <c r="N42" t="n" s="25">
         <v>0.5</v>
@@ -2022,31 +2022,31 @@
         <v>41.0</v>
       </c>
       <c r="E43" t="n" s="25">
-        <v>0.998968185143627</v>
+        <v>0.9986793617468323</v>
       </c>
       <c r="F43" t="n" s="25">
-        <v>0.9943919972413731</v>
+        <v>0.9886380291079273</v>
       </c>
       <c r="G43" t="n" s="25">
-        <v>0.4018738645806028</v>
+        <v>0.32375415926956513</v>
       </c>
       <c r="H43" t="n" s="25">
-        <v>0.9985840551515879</v>
+        <v>0.9969860387052136</v>
       </c>
       <c r="I43" t="n" s="25">
-        <v>0.9936510175515413</v>
+        <v>0.9826988508245025</v>
       </c>
       <c r="J43" t="n" s="25">
-        <v>4.960693648896903E-4</v>
+        <v>1.0946262331991501E-4</v>
       </c>
       <c r="K43" t="n" s="25">
-        <v>0.888390834444934</v>
+        <v>0.8495683209868241</v>
       </c>
       <c r="L43" t="n" s="25">
-        <v>0.0037275907938113116</v>
+        <v>0.0013369836148908484</v>
       </c>
       <c r="M43" t="n" s="25">
-        <v>3.1581063598836925E-20</v>
+        <v>3.6666418527090536E-21</v>
       </c>
       <c r="N43" t="n" s="25">
         <v>0.5</v>
@@ -2057,31 +2057,31 @@
         <v>42.0</v>
       </c>
       <c r="E44" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F44" t="n" s="25">
-        <v>0.9901851841910974</v>
+        <v>0.980371701562793</v>
       </c>
       <c r="G44" t="n" s="25">
-        <v>0.48326788570053575</v>
+        <v>0.35979727526069827</v>
       </c>
       <c r="H44" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I44" t="n" s="25">
-        <v>0.9864483185040284</v>
+        <v>0.9642863106774465</v>
       </c>
       <c r="J44" t="n" s="25">
-        <v>0.0022926170144050247</v>
+        <v>2.5624436849088086E-4</v>
       </c>
       <c r="K44" t="n" s="25">
-        <v>0.8662000939438683</v>
+        <v>0.8244981702995211</v>
       </c>
       <c r="L44" t="n" s="25">
-        <v>0.04448365867670142</v>
+        <v>0.009275080464415518</v>
       </c>
       <c r="M44" t="n" s="25">
-        <v>4.526200387582933E-17</v>
+        <v>1.8957669455275073E-18</v>
       </c>
       <c r="N44" t="n" s="25">
         <v>0.5</v>
@@ -2092,31 +2092,31 @@
         <v>43.0</v>
       </c>
       <c r="E45" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F45" t="n" s="25">
-        <v>0.9975376270719931</v>
+        <v>0.9945532003735782</v>
       </c>
       <c r="G45" t="n" s="25">
-        <v>0.49821348522351744</v>
+        <v>0.4100321632302593</v>
       </c>
       <c r="H45" t="n" s="25">
-        <v>0.9990919836025545</v>
+        <v>0.9979968118032464</v>
       </c>
       <c r="I45" t="n" s="25">
-        <v>0.9973986953669376</v>
+        <v>0.9922016292550304</v>
       </c>
       <c r="J45" t="n" s="25">
-        <v>0.0018797633208014585</v>
+        <v>4.007914743410781E-4</v>
       </c>
       <c r="K45" t="n" s="25">
-        <v>0.884935364249646</v>
+        <v>0.8456093815650679</v>
       </c>
       <c r="L45" t="n" s="25">
-        <v>0.0937673790272261</v>
+        <v>0.02069967979328008</v>
       </c>
       <c r="M45" t="n" s="25">
-        <v>1.1567674670484075E-17</v>
+        <v>7.241410659898917E-19</v>
       </c>
       <c r="N45" t="n" s="25">
         <v>0.5</v>
@@ -2127,31 +2127,31 @@
         <v>45.0</v>
       </c>
       <c r="E46" t="n" s="25">
-        <v>0.5817049814664755</v>
+        <v>0.5742029238260502</v>
       </c>
       <c r="F46" t="n" s="25">
-        <v>0.002822980143855225</v>
+        <v>0.0024713068034901845</v>
       </c>
       <c r="G46" t="n" s="25">
-        <v>3.40915645339288E-10</v>
+        <v>2.411817293894193E-10</v>
       </c>
       <c r="H46" t="n" s="25">
-        <v>0.004387438788564665</v>
+        <v>0.004109097011574657</v>
       </c>
       <c r="I46" t="n" s="25">
-        <v>7.853878773554432E-15</v>
+        <v>5.685694259396611E-15</v>
       </c>
       <c r="J46" t="n" s="25">
-        <v>1.0297676789496287E-37</v>
+        <v>6.008626177041683E-38</v>
       </c>
       <c r="K46" t="n" s="25">
-        <v>7.977800556700626E-8</v>
+        <v>7.28823578853958E-8</v>
       </c>
       <c r="L46" t="n" s="25">
-        <v>3.49245416126096E-33</v>
+        <v>2.5244354155477487E-33</v>
       </c>
       <c r="M46" t="n" s="25">
-        <v>4.3422023498390634E-69</v>
+        <v>2.5396034959131634E-69</v>
       </c>
       <c r="N46" t="n" s="25">
         <v>0.5</v>
@@ -2162,31 +2162,31 @@
         <v>46.0</v>
       </c>
       <c r="E47" t="n" s="25">
-        <v>0.9267093312248226</v>
+        <v>0.9153040830686708</v>
       </c>
       <c r="F47" t="n" s="25">
-        <v>0.21214601483078677</v>
+        <v>0.17947955218653935</v>
       </c>
       <c r="G47" t="n" s="25">
-        <v>0.0046844759843866265</v>
+        <v>0.0018495992664084215</v>
       </c>
       <c r="H47" t="n" s="25">
-        <v>0.36105564620785763</v>
+        <v>0.32223048759215417</v>
       </c>
       <c r="I47" t="n" s="25">
-        <v>2.295504197736739E-5</v>
+        <v>1.2103742265967338E-5</v>
       </c>
       <c r="J47" t="n" s="25">
-        <v>1.0870919445026127E-16</v>
+        <v>1.6307262662101622E-17</v>
       </c>
       <c r="K47" t="n" s="25">
-        <v>0.006196664785910912</v>
+        <v>0.004326249932194918</v>
       </c>
       <c r="L47" t="n" s="25">
-        <v>8.169790998539108E-17</v>
+        <v>3.2557207920739515E-17</v>
       </c>
       <c r="M47" t="n" s="25">
-        <v>2.954028092185148E-39</v>
+        <v>3.995919288780667E-40</v>
       </c>
       <c r="N47" t="n" s="25">
         <v>0.5</v>
@@ -2197,31 +2197,31 @@
         <v>47.0</v>
       </c>
       <c r="E48" t="n" s="25">
-        <v>0.7980013886855579</v>
+        <v>0.7816649682278823</v>
       </c>
       <c r="F48" t="n" s="25">
-        <v>0.06983293129668082</v>
+        <v>0.059430648350806095</v>
       </c>
       <c r="G48" t="n" s="25">
-        <v>0.0021918869412924677</v>
+        <v>0.0010964247216031916</v>
       </c>
       <c r="H48" t="n" s="25">
-        <v>0.17551289409845958</v>
+        <v>0.15222253722925447</v>
       </c>
       <c r="I48" t="n" s="25">
-        <v>4.7141465746775444E-5</v>
+        <v>2.021283846814477E-5</v>
       </c>
       <c r="J48" t="n" s="25">
-        <v>2.1850139510495002E-14</v>
+        <v>3.4550662984508983E-15</v>
       </c>
       <c r="K48" t="n" s="25">
-        <v>3.7027227646627245E-4</v>
+        <v>3.03531031115614E-4</v>
       </c>
       <c r="L48" t="n" s="25">
-        <v>2.3944104639786834E-16</v>
+        <v>9.528338431878425E-17</v>
       </c>
       <c r="M48" t="n" s="25">
-        <v>8.987381424567383E-37</v>
+        <v>1.3913027955046653E-37</v>
       </c>
       <c r="N48" t="n" s="25">
         <v>0.5</v>
@@ -2232,31 +2232,31 @@
         <v>49.0</v>
       </c>
       <c r="E49" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F49" t="n" s="25">
-        <v>0.9317178622206438</v>
+        <v>0.9034247490220824</v>
       </c>
       <c r="G49" t="n" s="25">
-        <v>0.05973349525371608</v>
+        <v>0.04258091551119047</v>
       </c>
       <c r="H49" t="n" s="25">
-        <v>0.9504343903409079</v>
+        <v>0.9353978708626884</v>
       </c>
       <c r="I49" t="n" s="25">
-        <v>0.7227805308849145</v>
+        <v>0.5475524873104649</v>
       </c>
       <c r="J49" t="n" s="25">
-        <v>6.0722439622727585E-9</v>
+        <v>1.291178351154088E-9</v>
       </c>
       <c r="K49" t="n" s="25">
-        <v>0.6526516252733371</v>
+        <v>0.6280449483093548</v>
       </c>
       <c r="L49" t="n" s="25">
-        <v>4.64943811440467E-6</v>
+        <v>1.9018440408408295E-6</v>
       </c>
       <c r="M49" t="n" s="25">
-        <v>4.972591390722366E-28</v>
+        <v>9.749730194353266E-29</v>
       </c>
       <c r="N49" t="n" s="25">
         <v>0.5</v>
@@ -2267,31 +2267,31 @@
         <v>50.0</v>
       </c>
       <c r="E50" t="n" s="25">
-        <v>0.9120061748844245</v>
+        <v>0.9016130011580409</v>
       </c>
       <c r="F50" t="n" s="25">
-        <v>0.20439891910510008</v>
+        <v>0.1748643263324813</v>
       </c>
       <c r="G50" t="n" s="25">
-        <v>1.6023550360606906E-4</v>
+        <v>1.1194896799143568E-4</v>
       </c>
       <c r="H50" t="n" s="25">
-        <v>0.27818513507301407</v>
+        <v>0.25625204369317267</v>
       </c>
       <c r="I50" t="n" s="25">
-        <v>2.3963337219470025E-4</v>
+        <v>1.190121108110289E-4</v>
       </c>
       <c r="J50" t="n" s="25">
-        <v>3.443428701420717E-17</v>
+        <v>8.8646860013135E-18</v>
       </c>
       <c r="K50" t="n" s="25">
-        <v>0.01844834010571029</v>
+        <v>0.01644654933888276</v>
       </c>
       <c r="L50" t="n" s="25">
-        <v>5.186326186430084E-14</v>
+        <v>2.42613284215721E-14</v>
       </c>
       <c r="M50" t="n" s="25">
-        <v>2.4592772848417837E-39</v>
+        <v>6.164570113249175E-40</v>
       </c>
       <c r="N50" t="n" s="25">
         <v>0.5</v>
@@ -2302,31 +2302,31 @@
         <v>51.0</v>
       </c>
       <c r="E51" t="n" s="25">
-        <v>0.28127374316902476</v>
+        <v>0.27595527110804746</v>
       </c>
       <c r="F51" t="n" s="25">
-        <v>6.218514532989395E-4</v>
+        <v>5.433393682426037E-4</v>
       </c>
       <c r="G51" t="n" s="25">
-        <v>3.8365322698849245E-7</v>
+        <v>1.2936264536072997E-7</v>
       </c>
       <c r="H51" t="n" s="25">
-        <v>0.0017746054070510978</v>
+        <v>0.0015507964094954201</v>
       </c>
       <c r="I51" t="n" s="25">
-        <v>7.427932483112339E-17</v>
+        <v>5.405219488616463E-17</v>
       </c>
       <c r="J51" t="n" s="25">
-        <v>1.4165627121507682E-33</v>
+        <v>3.969647868228311E-34</v>
       </c>
       <c r="K51" t="n" s="25">
-        <v>2.376886338795482E-11</v>
+        <v>2.0113938904726854E-11</v>
       </c>
       <c r="L51" t="n" s="25">
-        <v>7.464610517865685E-39</v>
+        <v>5.350994416985437E-39</v>
       </c>
       <c r="M51" t="n" s="25">
-        <v>2.7116482086860844E-64</v>
+        <v>8.428367030238944E-65</v>
       </c>
       <c r="N51" t="n" s="25">
         <v>0.5</v>
@@ -2337,31 +2337,31 @@
         <v>52.0</v>
       </c>
       <c r="E52" t="n" s="25">
-        <v>0.9989693011485256</v>
+        <v>0.9986806188062838</v>
       </c>
       <c r="F52" t="n" s="25">
-        <v>0.9867259192834039</v>
+        <v>0.9744790216348974</v>
       </c>
       <c r="G52" t="n" s="25">
-        <v>0.24106965077923814</v>
+        <v>0.18192006723629087</v>
       </c>
       <c r="H52" t="n" s="25">
-        <v>0.9937220914609961</v>
+        <v>0.9884327946758308</v>
       </c>
       <c r="I52" t="n" s="25">
-        <v>0.9842117247208784</v>
+        <v>0.9576993220086781</v>
       </c>
       <c r="J52" t="n" s="25">
-        <v>1.2918047760248912E-5</v>
+        <v>2.5475852819021746E-6</v>
       </c>
       <c r="K52" t="n" s="25">
-        <v>0.7342676875771434</v>
+        <v>0.7040148946629591</v>
       </c>
       <c r="L52" t="n" s="25">
-        <v>4.651869101592638E-4</v>
+        <v>1.7359183438025877E-4</v>
       </c>
       <c r="M52" t="n" s="25">
-        <v>2.355572944181785E-23</v>
+        <v>3.206068757770497E-24</v>
       </c>
       <c r="N52" t="n" s="25">
         <v>0.5</v>
@@ -2372,31 +2372,31 @@
         <v>53.0</v>
       </c>
       <c r="E53" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F53" t="n" s="25">
-        <v>0.9999855418336526</v>
+        <v>0.9999469428521394</v>
       </c>
       <c r="G53" t="n" s="25">
-        <v>0.9999950644681896</v>
+        <v>0.99990579669104</v>
       </c>
       <c r="H53" t="n" s="25">
-        <v>0.9998528046926016</v>
+        <v>0.99956919415681</v>
       </c>
       <c r="I53" t="n" s="25">
-        <v>0.9999997756261148</v>
+        <v>0.999986656382071</v>
       </c>
       <c r="J53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999388986201166</v>
       </c>
       <c r="K53" t="n" s="25">
-        <v>0.9964237127091791</v>
+        <v>0.978521136225196</v>
       </c>
       <c r="L53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9936390959870539</v>
       </c>
       <c r="M53" t="n" s="25">
-        <v>1.0</v>
+        <v>0.22601896918652997</v>
       </c>
       <c r="N53" t="n" s="25">
         <v>0.5</v>
@@ -2407,31 +2407,31 @@
         <v>54.0</v>
       </c>
       <c r="E54" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F54" t="n" s="25">
-        <v>0.999994978902363</v>
+        <v>0.9999815250827885</v>
       </c>
       <c r="G54" t="n" s="25">
-        <v>0.9999997329256669</v>
+        <v>0.9999948079036218</v>
       </c>
       <c r="H54" t="n" s="25">
-        <v>0.9999871917634247</v>
+        <v>0.9999577492040227</v>
       </c>
       <c r="I54" t="n" s="25">
-        <v>0.9999999999742355</v>
+        <v>0.9999999970415968</v>
       </c>
       <c r="J54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999387295154</v>
       </c>
       <c r="K54" t="n" s="25">
-        <v>0.9999937229273383</v>
+        <v>0.9999282336385537</v>
       </c>
       <c r="L54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999989958719954</v>
       </c>
       <c r="M54" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999091979456145</v>
       </c>
       <c r="N54" t="n" s="25">
         <v>0.5</v>
@@ -2442,31 +2442,31 @@
         <v>55.0</v>
       </c>
       <c r="E55" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F55" t="n" s="25">
-        <v>0.9998493785108437</v>
+        <v>0.9995987536315403</v>
       </c>
       <c r="G55" t="n" s="25">
-        <v>0.942915581938161</v>
+        <v>0.9025181841983585</v>
       </c>
       <c r="H55" t="n" s="25">
-        <v>0.9999166642102469</v>
+        <v>0.9997673264374483</v>
       </c>
       <c r="I55" t="n" s="25">
-        <v>0.9999144752937542</v>
+        <v>0.9992562080304602</v>
       </c>
       <c r="J55" t="n" s="25">
-        <v>0.950004274887035</v>
+        <v>0.7163136305726565</v>
       </c>
       <c r="K55" t="n" s="25">
-        <v>0.996271991590171</v>
+        <v>0.9823358929499438</v>
       </c>
       <c r="L55" t="n" s="25">
-        <v>0.9993263727966245</v>
+        <v>0.9878366372059518</v>
       </c>
       <c r="M55" t="n" s="25">
-        <v>3.73641910718447E-6</v>
+        <v>5.0719569925856674E-8</v>
       </c>
       <c r="N55" t="n" s="25">
         <v>0.5</v>
@@ -2477,31 +2477,31 @@
         <v>56.0</v>
       </c>
       <c r="E56" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F56" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G56" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H56" t="n" s="25">
-        <v>0.9999718803407678</v>
+        <v>0.9999163962624429</v>
       </c>
       <c r="I56" t="n" s="25">
-        <v>0.9999999999999987</v>
+        <v>0.9999999999996321</v>
       </c>
       <c r="J56" t="n" s="25">
         <v>1.0</v>
       </c>
       <c r="K56" t="n" s="25">
-        <v>0.9999991505669961</v>
+        <v>0.999991025336943</v>
       </c>
       <c r="L56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999528</v>
       </c>
       <c r="M56" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999915357</v>
       </c>
       <c r="N56" t="n" s="25">
         <v>0.5</v>
@@ -2512,31 +2512,31 @@
         <v>57.0</v>
       </c>
       <c r="E57" t="n" s="25">
-        <v>0.9991502015874535</v>
+        <v>0.9988880738452963</v>
       </c>
       <c r="F57" t="n" s="25">
-        <v>0.9998984705113436</v>
+        <v>0.9996931066278144</v>
       </c>
       <c r="G57" t="n" s="25">
-        <v>0.9953027279335374</v>
+        <v>0.9787746915578635</v>
       </c>
       <c r="H57" t="n" s="25">
-        <v>0.9997858429224046</v>
+        <v>0.999468723296609</v>
       </c>
       <c r="I57" t="n" s="25">
-        <v>0.9998751724472766</v>
+        <v>0.9989555499707343</v>
       </c>
       <c r="J57" t="n" s="25">
-        <v>0.9996140264288329</v>
+        <v>0.9907776267773555</v>
       </c>
       <c r="K57" t="n" s="25">
-        <v>0.9285630308694066</v>
+        <v>0.8850632397169184</v>
       </c>
       <c r="L57" t="n" s="25">
-        <v>0.9374693214652478</v>
+        <v>0.7433895276999104</v>
       </c>
       <c r="M57" t="n" s="25">
-        <v>9.751706047443335E-6</v>
+        <v>1.3857860837026144E-7</v>
       </c>
       <c r="N57" t="n" s="25">
         <v>0.5</v>
@@ -2547,31 +2547,31 @@
         <v>58.0</v>
       </c>
       <c r="E58" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F58" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G58" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H58" t="n" s="25">
-        <v>0.9994717829145038</v>
+        <v>0.9989726808162409</v>
       </c>
       <c r="I58" t="n" s="25">
-        <v>0.9999999998483848</v>
+        <v>0.9999999929138563</v>
       </c>
       <c r="J58" t="n" s="25">
-        <v>0.9999999999981374</v>
+        <v>0.9999999960967426</v>
       </c>
       <c r="K58" t="n" s="25">
-        <v>0.9836601549762498</v>
+        <v>0.971988208711494</v>
       </c>
       <c r="L58" t="n" s="25">
-        <v>0.9994760634289366</v>
+        <v>0.9928863856161939</v>
       </c>
       <c r="M58" t="n" s="25">
-        <v>0.9999001044793586</v>
+        <v>0.9951420085911447</v>
       </c>
       <c r="N58" t="n" s="25">
         <v>0.5</v>
@@ -2582,31 +2582,31 @@
         <v>59.0</v>
       </c>
       <c r="E59" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F59" t="n" s="25">
-        <v>0.9997623821076361</v>
+        <v>0.9991792721536772</v>
       </c>
       <c r="G59" t="n" s="25">
-        <v>0.9999951850460178</v>
+        <v>0.9998489973386832</v>
       </c>
       <c r="H59" t="n" s="25">
-        <v>0.9978900402463445</v>
+        <v>0.9957600676321031</v>
       </c>
       <c r="I59" t="n" s="25">
-        <v>0.99998735093043</v>
+        <v>0.9996663127982311</v>
       </c>
       <c r="J59" t="n" s="25">
-        <v>0.9999997786520487</v>
+        <v>0.9999671239767391</v>
       </c>
       <c r="K59" t="n" s="25">
-        <v>0.9347221797040561</v>
+        <v>0.883360284141321</v>
       </c>
       <c r="L59" t="n" s="25">
-        <v>0.9595168652586347</v>
+        <v>0.8354543320160978</v>
       </c>
       <c r="M59" t="n" s="25">
-        <v>0.32618640151302086</v>
+        <v>0.007154595675641255</v>
       </c>
       <c r="N59" t="n" s="25">
         <v>0.5</v>
@@ -2617,31 +2617,31 @@
         <v>60.0</v>
       </c>
       <c r="E60" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F60" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G60" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H60" t="n" s="25">
-        <v>0.9999021689487851</v>
+        <v>0.9997614219619314</v>
       </c>
       <c r="I60" t="n" s="25">
-        <v>0.9999999999999301</v>
+        <v>0.9999999999906486</v>
       </c>
       <c r="J60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999579</v>
       </c>
       <c r="K60" t="n" s="25">
-        <v>0.9993792596892169</v>
+        <v>0.998088917549583</v>
       </c>
       <c r="L60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999994458896364</v>
       </c>
       <c r="M60" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999988571200815</v>
       </c>
       <c r="N60" t="n" s="25">
         <v>0.5</v>
@@ -2652,31 +2652,31 @@
         <v>61.0</v>
       </c>
       <c r="E61" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F61" t="n" s="25">
-        <v>0.9999681432937092</v>
+        <v>0.999892033214316</v>
       </c>
       <c r="G61" t="n" s="25">
-        <v>0.9999986995076796</v>
+        <v>0.9999776350324243</v>
       </c>
       <c r="H61" t="n" s="25">
-        <v>0.9999166642102469</v>
+        <v>0.9997673264374483</v>
       </c>
       <c r="I61" t="n" s="25">
-        <v>0.9999999989439959</v>
+        <v>0.9999999273859781</v>
       </c>
       <c r="J61" t="n" s="25">
-        <v>0.9999999683747105</v>
+        <v>0.9999963540609833</v>
       </c>
       <c r="K61" t="n" s="25">
-        <v>0.9999300593255959</v>
+        <v>0.9994930425589926</v>
       </c>
       <c r="L61" t="n" s="25">
-        <v>0.9999941347771745</v>
+        <v>0.9998255436310103</v>
       </c>
       <c r="M61" t="n" s="25">
-        <v>0.9990126135184181</v>
+        <v>0.948168497724834</v>
       </c>
       <c r="N61" t="n" s="25">
         <v>0.5</v>
@@ -2687,31 +2687,31 @@
         <v>62.0</v>
       </c>
       <c r="E62" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F62" t="n" s="25">
-        <v>0.9999957973094735</v>
+        <v>0.9999836322906064</v>
       </c>
       <c r="G62" t="n" s="25">
-        <v>0.9999995941543178</v>
+        <v>0.9999902544424224</v>
       </c>
       <c r="H62" t="n" s="25">
-        <v>0.9999581033467996</v>
+        <v>0.9998825849385926</v>
       </c>
       <c r="I62" t="n" s="25">
-        <v>0.9999999969507433</v>
+        <v>0.9999997854244567</v>
       </c>
       <c r="J62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999898838404554</v>
       </c>
       <c r="K62" t="n" s="25">
-        <v>0.9997707825076824</v>
+        <v>0.9983760023944765</v>
       </c>
       <c r="L62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9994401753955191</v>
       </c>
       <c r="M62" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9180815881332332</v>
       </c>
       <c r="N62" t="n" s="25">
         <v>0.5</v>
@@ -2722,31 +2722,31 @@
         <v>63.0</v>
       </c>
       <c r="E63" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F63" t="n" s="25">
-        <v>0.9999875131729843</v>
+        <v>0.9999506820339122</v>
       </c>
       <c r="G63" t="n" s="25">
-        <v>0.9999999830055485</v>
+        <v>0.9999992643517888</v>
       </c>
       <c r="H63" t="n" s="25">
-        <v>0.9998718265394744</v>
+        <v>0.9996664232235026</v>
       </c>
       <c r="I63" t="n" s="25">
-        <v>0.9999999995900474</v>
+        <v>0.9999999629324667</v>
       </c>
       <c r="J63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999334890693</v>
       </c>
       <c r="K63" t="n" s="25">
-        <v>0.9991700103739364</v>
+        <v>0.996181557462594</v>
       </c>
       <c r="L63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9993454871073084</v>
       </c>
       <c r="M63" t="n" s="25">
-        <v>1.0</v>
+        <v>0.997715115441243</v>
       </c>
       <c r="N63" t="n" s="25">
         <v>0.5</v>
@@ -2757,31 +2757,31 @@
         <v>64.0</v>
       </c>
       <c r="E64" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F64" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G64" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H64" t="n" s="25">
-        <v>0.9997620712931052</v>
+        <v>0.999472011888504</v>
       </c>
       <c r="I64" t="n" s="25">
-        <v>0.9999999999893996</v>
+        <v>0.9999999991604857</v>
       </c>
       <c r="J64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999927334</v>
       </c>
       <c r="K64" t="n" s="25">
-        <v>0.999802873949962</v>
+        <v>0.9991782825404358</v>
       </c>
       <c r="L64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996876700107</v>
       </c>
       <c r="M64" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999980842782994</v>
       </c>
       <c r="N64" t="n" s="25">
         <v>0.5</v>
@@ -2792,31 +2792,31 @@
         <v>65.0</v>
       </c>
       <c r="E65" t="n" s="25">
-        <v>0.9990373602057647</v>
+        <v>0.9987590411006774</v>
       </c>
       <c r="F65" t="n" s="25">
-        <v>0.9999652208413379</v>
+        <v>0.9998796029948047</v>
       </c>
       <c r="G65" t="n" s="25">
-        <v>0.9999990424114705</v>
+        <v>0.9999766279073704</v>
       </c>
       <c r="H65" t="n" s="25">
-        <v>0.9999223715207279</v>
+        <v>0.9997783594804279</v>
       </c>
       <c r="I65" t="n" s="25">
-        <v>0.9999999828660923</v>
+        <v>0.9999988154757584</v>
       </c>
       <c r="J65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999958424406459</v>
       </c>
       <c r="K65" t="n" s="25">
-        <v>0.9998653571577532</v>
+        <v>0.9988552261579116</v>
       </c>
       <c r="L65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9995830080921712</v>
       </c>
       <c r="M65" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9962348742086264</v>
       </c>
       <c r="N65" t="n" s="25">
         <v>0.5</v>
@@ -2827,31 +2827,31 @@
         <v>66.0</v>
       </c>
       <c r="E66" t="n" s="25">
-        <v>0.9962085214936843</v>
+        <v>0.9953577230830417</v>
       </c>
       <c r="F66" t="n" s="25">
-        <v>0.746118591714965</v>
+        <v>0.6878382515467794</v>
       </c>
       <c r="G66" t="n" s="25">
-        <v>0.0332128320531181</v>
+        <v>0.020489979631720032</v>
       </c>
       <c r="H66" t="n" s="25">
-        <v>0.8851651126390487</v>
+        <v>0.8626429428908433</v>
       </c>
       <c r="I66" t="n" s="25">
-        <v>0.38175250086718016</v>
+        <v>0.22195519562151242</v>
       </c>
       <c r="J66" t="n" s="25">
-        <v>1.1287068085328606E-8</v>
+        <v>1.3958650748968956E-9</v>
       </c>
       <c r="K66" t="n" s="25">
-        <v>0.42908630669681674</v>
+        <v>0.4031264070003714</v>
       </c>
       <c r="L66" t="n" s="25">
-        <v>4.4354228464620206E-7</v>
+        <v>1.7946456444585864E-7</v>
       </c>
       <c r="M66" t="n" s="25">
-        <v>1.0985086272759136E-26</v>
+        <v>1.3684899976045575E-27</v>
       </c>
       <c r="N66" t="n" s="25">
         <v>0.5</v>
@@ -2862,31 +2862,31 @@
         <v>67.0</v>
       </c>
       <c r="E67" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F67" t="n" s="25">
-        <v>0.9997198465228606</v>
+        <v>0.9993217047353542</v>
       </c>
       <c r="G67" t="n" s="25">
-        <v>0.7326631465571667</v>
+        <v>0.6863123745893326</v>
       </c>
       <c r="H67" t="n" s="25">
-        <v>0.9999626320531781</v>
+        <v>0.999882343615926</v>
       </c>
       <c r="I67" t="n" s="25">
-        <v>0.9999829500788869</v>
+        <v>0.9997223183512729</v>
       </c>
       <c r="J67" t="n" s="25">
-        <v>0.07762826450735918</v>
+        <v>0.030314169722685788</v>
       </c>
       <c r="K67" t="n" s="25">
-        <v>0.99988357816899</v>
+        <v>0.9984495812448732</v>
       </c>
       <c r="L67" t="n" s="25">
-        <v>0.999989108106313</v>
+        <v>0.9993805664732245</v>
       </c>
       <c r="M67" t="n" s="25">
-        <v>1.3116739546586302E-7</v>
+        <v>3.3229886069764784E-9</v>
       </c>
       <c r="N67" t="n" s="25">
         <v>0.5</v>
@@ -2897,31 +2897,31 @@
         <v>68.0</v>
       </c>
       <c r="E68" t="n" s="25">
-        <v>0.998939751502888</v>
+        <v>0.9986481250635193</v>
       </c>
       <c r="F68" t="n" s="25">
-        <v>0.9994862699683845</v>
+        <v>0.9985311948637017</v>
       </c>
       <c r="G68" t="n" s="25">
-        <v>0.9998892013993763</v>
+        <v>0.998401275388785</v>
       </c>
       <c r="H68" t="n" s="25">
-        <v>0.9993951091020251</v>
+        <v>0.9985742559300245</v>
       </c>
       <c r="I68" t="n" s="25">
-        <v>0.9999801847233959</v>
+        <v>0.9995050918181946</v>
       </c>
       <c r="J68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9997699847402652</v>
       </c>
       <c r="K68" t="n" s="25">
-        <v>0.9948220755787388</v>
+        <v>0.9814769376104664</v>
       </c>
       <c r="L68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.974992133787438</v>
       </c>
       <c r="M68" t="n" s="25">
-        <v>1.0</v>
+        <v>0.15619299964158265</v>
       </c>
       <c r="N68" t="n" s="25">
         <v>0.5</v>
@@ -2932,31 +2932,31 @@
         <v>69.0</v>
       </c>
       <c r="E69" t="n" s="25">
-        <v>0.9006140655637773</v>
+        <v>0.8858541442465799</v>
       </c>
       <c r="F69" t="n" s="25">
-        <v>0.2940256856732057</v>
+        <v>0.24819344412178862</v>
       </c>
       <c r="G69" t="n" s="25">
-        <v>0.042287279773724845</v>
+        <v>0.018171044179414737</v>
       </c>
       <c r="H69" t="n" s="25">
-        <v>0.21656401412440868</v>
+        <v>0.18782147427938845</v>
       </c>
       <c r="I69" t="n" s="25">
-        <v>9.45471339493481E-5</v>
+        <v>4.013379659784513E-5</v>
       </c>
       <c r="J69" t="n" s="25">
-        <v>1.8618895218660994E-14</v>
+        <v>2.4318528137593724E-15</v>
       </c>
       <c r="K69" t="n" s="25">
-        <v>4.094579844876445E-4</v>
+        <v>3.330315275976134E-4</v>
       </c>
       <c r="L69" t="n" s="25">
-        <v>1.620597371252353E-16</v>
+        <v>6.171505419529296E-17</v>
       </c>
       <c r="M69" t="n" s="25">
-        <v>1.8814103495142113E-36</v>
+        <v>2.4524063774043225E-37</v>
       </c>
       <c r="N69" t="n" s="25">
         <v>0.5</v>
@@ -2967,31 +2967,31 @@
         <v>70.0</v>
       </c>
       <c r="E70" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F70" t="n" s="25">
-        <v>0.9914518373224961</v>
+        <v>0.9822513984017951</v>
       </c>
       <c r="G70" t="n" s="25">
-        <v>0.682774551096133</v>
+        <v>0.5293210689471863</v>
       </c>
       <c r="H70" t="n" s="25">
-        <v>0.9973774966965319</v>
+        <v>0.9945307023945416</v>
       </c>
       <c r="I70" t="n" s="25">
-        <v>0.9877347397221881</v>
+        <v>0.9656406649946077</v>
       </c>
       <c r="J70" t="n" s="25">
-        <v>0.21167076740690544</v>
+        <v>0.017154080271081413</v>
       </c>
       <c r="K70" t="n" s="25">
-        <v>0.9451950836200299</v>
+        <v>0.9085524516954924</v>
       </c>
       <c r="L70" t="n" s="25">
-        <v>0.8356849693954422</v>
+        <v>0.34820775501095086</v>
       </c>
       <c r="M70" t="n" s="25">
-        <v>1.1203090216295305E-10</v>
+        <v>1.5130629188175633E-12</v>
       </c>
       <c r="N70" t="n" s="25">
         <v>0.5</v>
@@ -3002,31 +3002,31 @@
         <v>71.0</v>
       </c>
       <c r="E71" t="n" s="25">
-        <v>0.044257536294065224</v>
+        <v>0.04325610641187684</v>
       </c>
       <c r="F71" t="n" s="25">
-        <v>0.0016868651153477594</v>
+        <v>0.0013921219423415673</v>
       </c>
       <c r="G71" t="n" s="25">
-        <v>2.693769839110516E-5</v>
+        <v>1.6371091013970082E-5</v>
       </c>
       <c r="H71" t="n" s="25">
-        <v>0.0013950488399551194</v>
+        <v>0.0011772563136850534</v>
       </c>
       <c r="I71" t="n" s="25">
-        <v>5.835132578531388E-8</v>
+        <v>2.167694822449522E-8</v>
       </c>
       <c r="J71" t="n" s="25">
-        <v>8.474761615061488E-16</v>
+        <v>1.4606380492362153E-16</v>
       </c>
       <c r="K71" t="n" s="25">
-        <v>2.2918006509704888E-5</v>
+        <v>1.1104422066791059E-5</v>
       </c>
       <c r="L71" t="n" s="25">
-        <v>1.4403117184588708E-13</v>
+        <v>5.889424250623567E-15</v>
       </c>
       <c r="M71" t="n" s="25">
-        <v>2.621242745700044E-30</v>
+        <v>5.779814431046338E-32</v>
       </c>
       <c r="N71" t="n" s="25">
         <v>0.5</v>
@@ -3037,31 +3037,31 @@
         <v>72.0</v>
       </c>
       <c r="E72" t="n" s="25">
-        <v>0.9965521146336737</v>
+        <v>0.995732578015365</v>
       </c>
       <c r="F72" t="n" s="25">
-        <v>0.8385220043453796</v>
+        <v>0.7667123742480357</v>
       </c>
       <c r="G72" t="n" s="25">
-        <v>0.7497267336983043</v>
+        <v>0.4729229247984755</v>
       </c>
       <c r="H72" t="n" s="25">
-        <v>0.9488266312462303</v>
+        <v>0.9272484943161676</v>
       </c>
       <c r="I72" t="n" s="25">
-        <v>0.788735997711348</v>
+        <v>0.5817684330687146</v>
       </c>
       <c r="J72" t="n" s="25">
-        <v>0.8868516647275984</v>
+        <v>0.0688254346735684</v>
       </c>
       <c r="K72" t="n" s="25">
-        <v>0.6867818403226238</v>
+        <v>0.6177644615355757</v>
       </c>
       <c r="L72" t="n" s="25">
-        <v>0.014845474505021272</v>
+        <v>0.0027737197376488175</v>
       </c>
       <c r="M72" t="n" s="25">
-        <v>6.8604040669760685E-9</v>
+        <v>4.056339473734922E-11</v>
       </c>
       <c r="N72" t="n" s="25">
         <v>0.5</v>
@@ -3072,31 +3072,31 @@
         <v>73.0</v>
       </c>
       <c r="E73" t="n" s="25">
-        <v>0.9972292178251291</v>
+        <v>0.9964816192454153</v>
       </c>
       <c r="F73" t="n" s="25">
-        <v>0.8628223665749422</v>
+        <v>0.7948235249795589</v>
       </c>
       <c r="G73" t="n" s="25">
-        <v>0.15829756485027943</v>
+        <v>0.11586352763536119</v>
       </c>
       <c r="H73" t="n" s="25">
-        <v>0.9352654399439871</v>
+        <v>0.9028136201615039</v>
       </c>
       <c r="I73" t="n" s="25">
-        <v>0.9034961692024299</v>
+        <v>0.7645208756369327</v>
       </c>
       <c r="J73" t="n" s="25">
-        <v>8.490678907729711E-8</v>
+        <v>2.1323769359396995E-8</v>
       </c>
       <c r="K73" t="n" s="25">
-        <v>0.20777504322399484</v>
+        <v>0.18145791407267603</v>
       </c>
       <c r="L73" t="n" s="25">
-        <v>4.490261784081071E-7</v>
+        <v>1.3182723770058055E-7</v>
       </c>
       <c r="M73" t="n" s="25">
-        <v>1.793600974886925E-28</v>
+        <v>3.4081716127034547E-29</v>
       </c>
       <c r="N73" t="n" s="25">
         <v>0.5</v>
@@ -3107,31 +3107,31 @@
         <v>74.0</v>
       </c>
       <c r="E74" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F74" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G74" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H74" t="n" s="25">
-        <v>0.999641532150077</v>
+        <v>0.9992568401576493</v>
       </c>
       <c r="I74" t="n" s="25">
-        <v>0.9999999999594167</v>
+        <v>0.999999997524541</v>
       </c>
       <c r="J74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997675932</v>
       </c>
       <c r="K74" t="n" s="25">
-        <v>0.998171316923617</v>
+        <v>0.9950832758698387</v>
       </c>
       <c r="L74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999358766319689</v>
       </c>
       <c r="M74" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999084594401062</v>
       </c>
       <c r="N74" t="n" s="25">
         <v>0.5</v>
@@ -3142,31 +3142,31 @@
         <v>75.0</v>
       </c>
       <c r="E75" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F75" t="n" s="25">
-        <v>0.9999524380549404</v>
+        <v>0.99984819976052</v>
       </c>
       <c r="G75" t="n" s="25">
-        <v>0.99996906938482</v>
+        <v>0.9996381140247952</v>
       </c>
       <c r="H75" t="n" s="25">
-        <v>0.9999440669894951</v>
+        <v>0.9998343225736575</v>
       </c>
       <c r="I75" t="n" s="25">
-        <v>0.9999999914177273</v>
+        <v>0.9999994206937614</v>
       </c>
       <c r="J75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999401014713918</v>
       </c>
       <c r="K75" t="n" s="25">
-        <v>0.9999761002767086</v>
+        <v>0.9997500689906449</v>
       </c>
       <c r="L75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999221525855816</v>
       </c>
       <c r="M75" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9701451305939345</v>
       </c>
       <c r="N75" t="n" s="25">
         <v>0.5</v>
@@ -3177,31 +3177,31 @@
         <v>76.0</v>
       </c>
       <c r="E76" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F76" t="n" s="25">
-        <v>0.9932780235953592</v>
+        <v>0.9858998569698594</v>
       </c>
       <c r="G76" t="n" s="25">
-        <v>0.6939488489190372</v>
+        <v>0.5810369729071474</v>
       </c>
       <c r="H76" t="n" s="25">
-        <v>0.9971691585855683</v>
+        <v>0.9942140589666345</v>
       </c>
       <c r="I76" t="n" s="25">
-        <v>0.9865882762470961</v>
+        <v>0.964430735169199</v>
       </c>
       <c r="J76" t="n" s="25">
-        <v>1.0</v>
+        <v>8.676918781213462E-4</v>
       </c>
       <c r="K76" t="n" s="25">
-        <v>0.9372507536258805</v>
+        <v>0.9039649300292059</v>
       </c>
       <c r="L76" t="n" s="25">
-        <v>1.0</v>
+        <v>0.07765326438835737</v>
       </c>
       <c r="M76" t="n" s="25">
-        <v>1.0</v>
+        <v>2.189471996939436E-15</v>
       </c>
       <c r="N76" t="n" s="25">
         <v>0.5</v>
@@ -3212,31 +3212,31 @@
         <v>77.0</v>
       </c>
       <c r="E77" t="n" s="25">
-        <v>0.9966314463997479</v>
+        <v>0.9958185960794042</v>
       </c>
       <c r="F77" t="n" s="25">
-        <v>0.7389654589627351</v>
+        <v>0.6816765607065257</v>
       </c>
       <c r="G77" t="n" s="25">
-        <v>0.028270646473174947</v>
+        <v>0.019526884304508815</v>
       </c>
       <c r="H77" t="n" s="25">
-        <v>0.8470253781805865</v>
+        <v>0.8178567434952099</v>
       </c>
       <c r="I77" t="n" s="25">
-        <v>0.3140676666904092</v>
+        <v>0.1676141620262679</v>
       </c>
       <c r="J77" t="n" s="25">
-        <v>1.8325658678801446E-11</v>
+        <v>5.4856031789576515E-12</v>
       </c>
       <c r="K77" t="n" s="25">
-        <v>0.21757755038902554</v>
+        <v>0.1962379809738263</v>
       </c>
       <c r="L77" t="n" s="25">
-        <v>4.8738702984368035E-9</v>
+        <v>1.7962732595862996E-9</v>
       </c>
       <c r="M77" t="n" s="25">
-        <v>3.068700873429414E-33</v>
+        <v>8.117152069341913E-34</v>
       </c>
       <c r="N77" t="n" s="25">
         <v>0.5</v>
@@ -3247,31 +3247,31 @@
         <v>78.0</v>
       </c>
       <c r="E78" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F78" t="n" s="25">
-        <v>0.9999270511254754</v>
+        <v>0.9997554206357061</v>
       </c>
       <c r="G78" t="n" s="25">
-        <v>0.9997117604029435</v>
+        <v>0.9982215117172379</v>
       </c>
       <c r="H78" t="n" s="25">
-        <v>0.9954525734529254</v>
+        <v>0.9925836823353955</v>
       </c>
       <c r="I78" t="n" s="25">
-        <v>0.9924664695015695</v>
+        <v>0.9785126219077538</v>
       </c>
       <c r="J78" t="n" s="25">
-        <v>0.9960355168099951</v>
+        <v>0.9351231441835077</v>
       </c>
       <c r="K78" t="n" s="25">
-        <v>0.6697130418981342</v>
+        <v>0.6407815324990775</v>
       </c>
       <c r="L78" t="n" s="25">
-        <v>0.2190856257313991</v>
+        <v>0.126009236651929</v>
       </c>
       <c r="M78" t="n" s="25">
-        <v>5.214552602529698E-8</v>
+        <v>1.6891932415038534E-9</v>
       </c>
       <c r="N78" t="n" s="25">
         <v>0.5</v>
@@ -3282,31 +3282,31 @@
         <v>79.0</v>
       </c>
       <c r="E79" t="n" s="25">
-        <v>0.9991502015874535</v>
+        <v>0.9988880738452963</v>
       </c>
       <c r="F79" t="n" s="25">
-        <v>0.9996614386301628</v>
+        <v>0.9989163357586677</v>
       </c>
       <c r="G79" t="n" s="25">
-        <v>0.9987640778542524</v>
+        <v>0.9891667460521543</v>
       </c>
       <c r="H79" t="n" s="25">
-        <v>0.9979155830005331</v>
+        <v>0.995495895839277</v>
       </c>
       <c r="I79" t="n" s="25">
-        <v>0.9995578313383923</v>
+        <v>0.9959787653669454</v>
       </c>
       <c r="J79" t="n" s="25">
-        <v>0.9999241950577795</v>
+        <v>0.9962793445561606</v>
       </c>
       <c r="K79" t="n" s="25">
-        <v>0.6164009805350779</v>
+        <v>0.568336570234283</v>
       </c>
       <c r="L79" t="n" s="25">
-        <v>0.16127113495071663</v>
+        <v>0.06601190571632988</v>
       </c>
       <c r="M79" t="n" s="25">
-        <v>1.6065068053355119E-6</v>
+        <v>2.9116626830881655E-8</v>
       </c>
       <c r="N79" t="n" s="25">
         <v>0.5</v>
@@ -3317,31 +3317,31 @@
         <v>80.0</v>
       </c>
       <c r="E80" t="n" s="25">
-        <v>0.9951051466693714</v>
+        <v>0.9938492177629931</v>
       </c>
       <c r="F80" t="n" s="25">
-        <v>0.956923400454041</v>
+        <v>0.921674510178054</v>
       </c>
       <c r="G80" t="n" s="25">
-        <v>0.23756936132134107</v>
+        <v>0.1801750505374709</v>
       </c>
       <c r="H80" t="n" s="25">
-        <v>0.9814709040684259</v>
+        <v>0.9640701081975334</v>
       </c>
       <c r="I80" t="n" s="25">
-        <v>0.9782493211209099</v>
+        <v>0.9369071630712408</v>
       </c>
       <c r="J80" t="n" s="25">
-        <v>8.755483155559437E-5</v>
+        <v>1.6093484521050112E-5</v>
       </c>
       <c r="K80" t="n" s="25">
-        <v>0.7419078822974404</v>
+        <v>0.6690444983693347</v>
       </c>
       <c r="L80" t="n" s="25">
-        <v>0.007698796276625427</v>
+        <v>0.001325974724667733</v>
       </c>
       <c r="M80" t="n" s="25">
-        <v>6.418237067115435E-20</v>
+        <v>4.2090224647683075E-21</v>
       </c>
       <c r="N80" t="n" s="25">
         <v>0.5</v>
@@ -3352,31 +3352,31 @@
         <v>81.0</v>
       </c>
       <c r="E81" t="n" s="25">
-        <v>0.04394647614925636</v>
+        <v>0.04300505815452313</v>
       </c>
       <c r="F81" t="n" s="25">
-        <v>0.0013979013558661933</v>
+        <v>0.001178748877060617</v>
       </c>
       <c r="G81" t="n" s="25">
-        <v>2.6480351958156606E-4</v>
+        <v>8.797453619703742E-5</v>
       </c>
       <c r="H81" t="n" s="25">
-        <v>0.0011565366925140128</v>
+        <v>9.97706309194383E-4</v>
       </c>
       <c r="I81" t="n" s="25">
-        <v>3.702937268175917E-8</v>
+        <v>1.6354197895846442E-8</v>
       </c>
       <c r="J81" t="n" s="25">
-        <v>1.0</v>
+        <v>5.464309060491548E-12</v>
       </c>
       <c r="K81" t="n" s="25">
-        <v>3.661838385114303E-5</v>
+        <v>2.1746232520125514E-5</v>
       </c>
       <c r="L81" t="n" s="25">
-        <v>1.0</v>
+        <v>3.015064054239214E-14</v>
       </c>
       <c r="M81" t="n" s="25">
-        <v>1.0</v>
+        <v>1.4615756595939216E-23</v>
       </c>
       <c r="N81" t="n" s="25">
         <v>0.5</v>
@@ -3387,31 +3387,31 @@
         <v>82.0</v>
       </c>
       <c r="E82" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F82" t="n" s="25">
-        <v>0.9900505910256209</v>
+        <v>0.9801954619761308</v>
       </c>
       <c r="G82" t="n" s="25">
-        <v>0.4755471425989367</v>
+        <v>0.35677953436287974</v>
       </c>
       <c r="H82" t="n" s="25">
-        <v>0.9941947667940023</v>
+        <v>0.9894077807465312</v>
       </c>
       <c r="I82" t="n" s="25">
-        <v>0.9864138688865842</v>
+        <v>0.964244312185244</v>
       </c>
       <c r="J82" t="n" s="25">
-        <v>0.0013128022323690477</v>
+        <v>1.5699240868643515E-4</v>
       </c>
       <c r="K82" t="n" s="25">
-        <v>0.7268399861439562</v>
+        <v>0.6972435261021667</v>
       </c>
       <c r="L82" t="n" s="25">
-        <v>0.0022713970007118087</v>
+        <v>8.858337257142699E-4</v>
       </c>
       <c r="M82" t="n" s="25">
-        <v>2.5974484435429256E-19</v>
+        <v>2.2625678533995106E-20</v>
       </c>
       <c r="N82" t="n" s="25">
         <v>0.5</v>
@@ -3422,31 +3422,31 @@
         <v>83.0</v>
       </c>
       <c r="E83" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F83" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G83" t="n" s="25">
-        <v>0.2842093528892021</v>
+        <v>0.2175081986872824</v>
       </c>
       <c r="H83" t="n" s="25">
-        <v>0.9941947667940023</v>
+        <v>0.9894077807465312</v>
       </c>
       <c r="I83" t="n" s="25">
-        <v>0.9864070314650925</v>
+        <v>0.9642339457616126</v>
       </c>
       <c r="J83" t="n" s="25">
-        <v>2.4627570549532173E-5</v>
+        <v>5.0763789903468E-6</v>
       </c>
       <c r="K83" t="n" s="25">
-        <v>0.7267686339444932</v>
+        <v>0.6971941805231897</v>
       </c>
       <c r="L83" t="n" s="25">
-        <v>5.688182592430624E-4</v>
+        <v>2.216056607544911E-4</v>
       </c>
       <c r="M83" t="n" s="25">
-        <v>5.876456341371494E-23</v>
+        <v>8.341641765660323E-24</v>
       </c>
       <c r="N83" t="n" s="25">
         <v>0.5</v>
@@ -3457,31 +3457,31 @@
         <v>84.0</v>
       </c>
       <c r="E84" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F84" t="n" s="25">
-        <v>0.9999981274044734</v>
+        <v>0.9999919203708877</v>
       </c>
       <c r="G84" t="n" s="25">
-        <v>0.9999999893465782</v>
+        <v>0.9999995462598604</v>
       </c>
       <c r="H84" t="n" s="25">
-        <v>0.9999705132141888</v>
+        <v>0.9999145316848632</v>
       </c>
       <c r="I84" t="n" s="25">
-        <v>0.9999999998446093</v>
+        <v>0.9999999841130565</v>
       </c>
       <c r="J84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999303094647</v>
       </c>
       <c r="K84" t="n" s="25">
-        <v>0.9991344291696286</v>
+        <v>0.9957331611288794</v>
       </c>
       <c r="L84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9995786352236082</v>
       </c>
       <c r="M84" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9986844979411011</v>
       </c>
       <c r="N84" t="n" s="25">
         <v>0.5</v>
@@ -3492,31 +3492,31 @@
         <v>85.0</v>
       </c>
       <c r="E85" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F85" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G85" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H85" t="n" s="25">
-        <v>0.9997620712931052</v>
+        <v>0.999472011888504</v>
       </c>
       <c r="I85" t="n" s="25">
-        <v>0.9999999999893996</v>
+        <v>0.9999999991604857</v>
       </c>
       <c r="J85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999927334</v>
       </c>
       <c r="K85" t="n" s="25">
-        <v>0.999802873949962</v>
+        <v>0.9991782825404358</v>
       </c>
       <c r="L85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999996876700107</v>
       </c>
       <c r="M85" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999980842782994</v>
       </c>
       <c r="N85" t="n" s="25">
         <v>0.5</v>
@@ -3527,31 +3527,31 @@
         <v>86.0</v>
       </c>
       <c r="E86" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F86" t="n" s="25">
-        <v>0.9999705253874516</v>
+        <v>0.9998978037876883</v>
       </c>
       <c r="G86" t="n" s="25">
-        <v>0.9999975671248171</v>
+        <v>0.9999495742319146</v>
       </c>
       <c r="H86" t="n" s="25">
-        <v>0.9996280604592226</v>
+        <v>0.9991677250938935</v>
       </c>
       <c r="I86" t="n" s="25">
-        <v>0.9999995874554307</v>
+        <v>0.9999872108369191</v>
       </c>
       <c r="J86" t="n" s="25">
-        <v>0.9999997576279535</v>
+        <v>0.99998224917518</v>
       </c>
       <c r="K86" t="n" s="25">
-        <v>0.9804038578722216</v>
+        <v>0.9524413916297212</v>
       </c>
       <c r="L86" t="n" s="25">
-        <v>0.9940751341253149</v>
+        <v>0.9727434958857043</v>
       </c>
       <c r="M86" t="n" s="25">
-        <v>0.5938700929279853</v>
+        <v>0.03760935095773386</v>
       </c>
       <c r="N86" t="n" s="25">
         <v>0.5</v>
@@ -3562,31 +3562,31 @@
         <v>87.0</v>
       </c>
       <c r="E87" t="n" s="25">
-        <v>0.998834647751979</v>
+        <v>0.9985299348754908</v>
       </c>
       <c r="F87" t="n" s="25">
-        <v>0.9999850927347549</v>
+        <v>0.9999374264821783</v>
       </c>
       <c r="G87" t="n" s="25">
-        <v>0.9999999919789755</v>
+        <v>0.9999994907539054</v>
       </c>
       <c r="H87" t="n" s="25">
-        <v>0.9983341739281109</v>
+        <v>0.9968543071540885</v>
       </c>
       <c r="I87" t="n" s="25">
-        <v>0.9999998759273429</v>
+        <v>0.9999955176255327</v>
       </c>
       <c r="J87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999990523815853</v>
       </c>
       <c r="K87" t="n" s="25">
-        <v>0.9840416837773894</v>
+        <v>0.9629743597693281</v>
       </c>
       <c r="L87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9814218139898448</v>
       </c>
       <c r="M87" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9711295390446961</v>
       </c>
       <c r="N87" t="n" s="25">
         <v>0.5</v>
@@ -3597,31 +3597,31 @@
         <v>88.0</v>
       </c>
       <c r="E88" t="n" s="25">
-        <v>0.012514703129126456</v>
+        <v>0.012320538792816374</v>
       </c>
       <c r="F88" t="n" s="25">
-        <v>4.776920277787655E-5</v>
+        <v>4.043030103890884E-5</v>
       </c>
       <c r="G88" t="n" s="25">
-        <v>2.737838208789246E-6</v>
+        <v>9.333997343649222E-7</v>
       </c>
       <c r="H88" t="n" s="25">
-        <v>1.364513737099082E-4</v>
+        <v>1.1549972656863119E-4</v>
       </c>
       <c r="I88" t="n" s="25">
-        <v>1.179980487391772E-9</v>
+        <v>4.2317698328982687E-10</v>
       </c>
       <c r="J88" t="n" s="25">
-        <v>7.315775615257357E-11</v>
+        <v>6.588984004118946E-13</v>
       </c>
       <c r="K88" t="n" s="25">
-        <v>2.783873771213976E-7</v>
+        <v>2.2882808889335286E-7</v>
       </c>
       <c r="L88" t="n" s="25">
-        <v>8.078627427328293E-17</v>
+        <v>2.6904615616776533E-17</v>
       </c>
       <c r="M88" t="n" s="25">
-        <v>1.0321532155592705E-24</v>
+        <v>1.1306990508164049E-26</v>
       </c>
       <c r="N88" t="n" s="25">
         <v>0.5</v>
@@ -3632,31 +3632,31 @@
         <v>89.0</v>
       </c>
       <c r="E89" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F89" t="n" s="25">
-        <v>0.9994695496877858</v>
+        <v>0.9983429073492299</v>
       </c>
       <c r="G89" t="n" s="25">
-        <v>0.9999450061929143</v>
+        <v>0.9989954461295399</v>
       </c>
       <c r="H89" t="n" s="25">
-        <v>0.995929656182218</v>
+        <v>0.9913096019479087</v>
       </c>
       <c r="I89" t="n" s="25">
-        <v>0.999918506260754</v>
+        <v>0.9980110674608652</v>
       </c>
       <c r="J89" t="n" s="25">
-        <v>0.9999957800815272</v>
+        <v>0.9996518387423692</v>
       </c>
       <c r="K89" t="n" s="25">
-        <v>0.9610035036250675</v>
+        <v>0.8940928805753319</v>
       </c>
       <c r="L89" t="n" s="25">
-        <v>0.9894938531486139</v>
+        <v>0.9030959769796667</v>
       </c>
       <c r="M89" t="n" s="25">
-        <v>0.45980916389325655</v>
+        <v>0.008408127066396919</v>
       </c>
       <c r="N89" t="n" s="25">
         <v>0.5</v>
@@ -3667,31 +3667,31 @@
         <v>90.0</v>
       </c>
       <c r="E90" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F90" t="n" s="25">
-        <v>0.999992139416221</v>
+        <v>0.9999730255848117</v>
       </c>
       <c r="G90" t="n" s="25">
-        <v>0.9999876902175574</v>
+        <v>0.9998467612734306</v>
       </c>
       <c r="H90" t="n" s="25">
-        <v>0.9999693353717757</v>
+        <v>0.9999121124014292</v>
       </c>
       <c r="I90" t="n" s="25">
-        <v>0.9999999663314224</v>
+        <v>0.9999984169635762</v>
       </c>
       <c r="J90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999592082993323</v>
       </c>
       <c r="K90" t="n" s="25">
-        <v>0.9974621900918169</v>
+        <v>0.9891139499759416</v>
       </c>
       <c r="L90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9958217862176412</v>
       </c>
       <c r="M90" t="n" s="25">
-        <v>1.0</v>
+        <v>0.2289225101234238</v>
       </c>
       <c r="N90" t="n" s="25">
         <v>0.5</v>
@@ -3702,31 +3702,31 @@
         <v>91.0</v>
       </c>
       <c r="E91" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F91" t="n" s="25">
-        <v>0.9756950728363307</v>
+        <v>0.9568218617582085</v>
       </c>
       <c r="G91" t="n" s="25">
-        <v>0.49074704474104813</v>
+        <v>0.36158297459880673</v>
       </c>
       <c r="H91" t="n" s="25">
-        <v>0.9714766066251099</v>
+        <v>0.954859027670254</v>
       </c>
       <c r="I91" t="n" s="25">
-        <v>0.9424107654075258</v>
+        <v>0.8696163671638445</v>
       </c>
       <c r="J91" t="n" s="25">
-        <v>1.0045681372047734E-5</v>
+        <v>1.6976309269697663E-6</v>
       </c>
       <c r="K91" t="n" s="25">
-        <v>0.515472844232396</v>
+        <v>0.479417991945645</v>
       </c>
       <c r="L91" t="n" s="25">
-        <v>4.103885347582334E-5</v>
+        <v>1.5255462296972016E-5</v>
       </c>
       <c r="M91" t="n" s="25">
-        <v>6.443719286804128E-24</v>
+        <v>8.855781090115909E-25</v>
       </c>
       <c r="N91" t="n" s="25">
         <v>0.5</v>
@@ -3737,31 +3737,31 @@
         <v>92.0</v>
       </c>
       <c r="E92" t="n" s="25">
-        <v>0.9968661901633061</v>
+        <v>0.9960788995646199</v>
       </c>
       <c r="F92" t="n" s="25">
-        <v>0.9997784381574254</v>
+        <v>0.9991402894101343</v>
       </c>
       <c r="G92" t="n" s="25">
-        <v>0.9999998872387831</v>
+        <v>0.9999941583387356</v>
       </c>
       <c r="H92" t="n" s="25">
-        <v>0.9976652039587978</v>
+        <v>0.9953818917347397</v>
       </c>
       <c r="I92" t="n" s="25">
-        <v>0.9999995072263442</v>
+        <v>0.9999834558652281</v>
       </c>
       <c r="J92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999983310607753</v>
       </c>
       <c r="K92" t="n" s="25">
-        <v>0.8902636345053881</v>
+        <v>0.7969961216730118</v>
       </c>
       <c r="L92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8713359772980047</v>
       </c>
       <c r="M92" t="n" s="25">
-        <v>1.0</v>
+        <v>0.6214633880657419</v>
       </c>
       <c r="N92" t="n" s="25">
         <v>0.5</v>
@@ -3772,31 +3772,31 @@
         <v>93.0</v>
       </c>
       <c r="E93" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F93" t="n" s="25">
-        <v>0.9998706631823515</v>
+        <v>0.9996237820722315</v>
       </c>
       <c r="G93" t="n" s="25">
-        <v>0.966225039683632</v>
+        <v>0.9348069988080752</v>
       </c>
       <c r="H93" t="n" s="25">
-        <v>0.9995438020687304</v>
+        <v>0.9989127879474017</v>
       </c>
       <c r="I93" t="n" s="25">
-        <v>0.9995312167886377</v>
+        <v>0.9983180094153066</v>
       </c>
       <c r="J93" t="n" s="25">
-        <v>0.8637651901839108</v>
+        <v>0.416634613856015</v>
       </c>
       <c r="K93" t="n" s="25">
-        <v>0.6489579155035863</v>
+        <v>0.6006579454169706</v>
       </c>
       <c r="L93" t="n" s="25">
-        <v>0.04228921705207783</v>
+        <v>0.015510505022905977</v>
       </c>
       <c r="M93" t="n" s="25">
-        <v>4.592506988580481E-13</v>
+        <v>2.3013343647543352E-14</v>
       </c>
       <c r="N93" t="n" s="25">
         <v>0.5</v>
@@ -3807,31 +3807,31 @@
         <v>94.0</v>
       </c>
       <c r="E94" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F94" t="n" s="25">
-        <v>0.9999989244061447</v>
+        <v>0.9999948626566484</v>
       </c>
       <c r="G94" t="n" s="25">
-        <v>0.9999999999830281</v>
+        <v>0.9999999982634927</v>
       </c>
       <c r="H94" t="n" s="25">
-        <v>0.999641532150077</v>
+        <v>0.9992568401576493</v>
       </c>
       <c r="I94" t="n" s="25">
-        <v>0.9999999999594167</v>
+        <v>0.999999997524541</v>
       </c>
       <c r="J94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999997675932</v>
       </c>
       <c r="K94" t="n" s="25">
-        <v>0.998171316923617</v>
+        <v>0.9950832758698387</v>
       </c>
       <c r="L94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999358766319689</v>
       </c>
       <c r="M94" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999084594401062</v>
       </c>
       <c r="N94" t="n" s="25">
         <v>0.5</v>
@@ -3842,31 +3842,31 @@
         <v>95.0</v>
       </c>
       <c r="E95" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F95" t="n" s="25">
-        <v>0.999552034178506</v>
+        <v>0.9988416327135599</v>
       </c>
       <c r="G95" t="n" s="25">
-        <v>0.9378824390076946</v>
+        <v>0.8985925174197503</v>
       </c>
       <c r="H95" t="n" s="25">
-        <v>0.9990673189080931</v>
+        <v>0.9977441413172348</v>
       </c>
       <c r="I95" t="n" s="25">
-        <v>0.9978689164172817</v>
+        <v>0.9933662031561432</v>
       </c>
       <c r="J95" t="n" s="25">
-        <v>0.09466569650556353</v>
+        <v>0.020481534545758812</v>
       </c>
       <c r="K95" t="n" s="25">
-        <v>0.900943963137252</v>
+        <v>0.8399368717624424</v>
       </c>
       <c r="L95" t="n" s="25">
-        <v>0.6879731506152492</v>
+        <v>0.18189645726002218</v>
       </c>
       <c r="M95" t="n" s="25">
-        <v>3.1416282561143805E-13</v>
+        <v>8.429174491544497E-15</v>
       </c>
       <c r="N95" t="n" s="25">
         <v>0.5</v>
@@ -3877,31 +3877,31 @@
         <v>96.0</v>
       </c>
       <c r="E96" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F96" t="n" s="25">
-        <v>0.9999144559250754</v>
+        <v>0.999700136168954</v>
       </c>
       <c r="G96" t="n" s="25">
-        <v>0.999985358056131</v>
+        <v>0.9997805193588458</v>
       </c>
       <c r="H96" t="n" s="25">
-        <v>0.9765834056697428</v>
+        <v>0.9560997640434354</v>
       </c>
       <c r="I96" t="n" s="25">
-        <v>0.9944611027607037</v>
+        <v>0.9546913381340185</v>
       </c>
       <c r="J96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9903301911822024</v>
       </c>
       <c r="K96" t="n" s="25">
-        <v>0.7074239871650284</v>
+        <v>0.5061334888545359</v>
       </c>
       <c r="L96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.1705383580483528</v>
       </c>
       <c r="M96" t="n" s="25">
-        <v>1.0</v>
+        <v>0.0034597005678284145</v>
       </c>
       <c r="N96" t="n" s="25">
         <v>0.5</v>
@@ -3912,31 +3912,31 @@
         <v>97.0</v>
       </c>
       <c r="E97" t="n" s="25">
-        <v>0.9987182239958053</v>
+        <v>0.9984004080346276</v>
       </c>
       <c r="F97" t="n" s="25">
-        <v>0.999997759630215</v>
+        <v>0.9999902756318655</v>
       </c>
       <c r="G97" t="n" s="25">
-        <v>0.9999999989390521</v>
+        <v>0.9999999319411731</v>
       </c>
       <c r="H97" t="n" s="25">
-        <v>0.9986546662319764</v>
+        <v>0.997655328634805</v>
       </c>
       <c r="I97" t="n" s="25">
-        <v>0.9999999744913264</v>
+        <v>0.9999993212693052</v>
       </c>
       <c r="J97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999994633492904</v>
       </c>
       <c r="K97" t="n" s="25">
-        <v>0.9940008086955473</v>
+        <v>0.9868467219884297</v>
       </c>
       <c r="L97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9968990895748013</v>
       </c>
       <c r="M97" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9946437002774654</v>
       </c>
       <c r="N97" t="n" s="25">
         <v>0.5</v>
@@ -3947,31 +3947,31 @@
         <v>98.0</v>
       </c>
       <c r="E98" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F98" t="n" s="25">
-        <v>0.9997805532098349</v>
+        <v>0.9993413178873232</v>
       </c>
       <c r="G98" t="n" s="25">
-        <v>0.9975926763212793</v>
+        <v>0.9932800422050513</v>
       </c>
       <c r="H98" t="n" s="25">
-        <v>0.990510354533449</v>
+        <v>0.9806082898455037</v>
       </c>
       <c r="I98" t="n" s="25">
-        <v>0.9906947991477819</v>
+        <v>0.9729954531110808</v>
       </c>
       <c r="J98" t="n" s="25">
-        <v>0.7839182035419514</v>
+        <v>0.25349680735963664</v>
       </c>
       <c r="K98" t="n" s="25">
-        <v>0.41741008015200676</v>
+        <v>0.3286964011968869</v>
       </c>
       <c r="L98" t="n" s="25">
-        <v>0.013000363726493734</v>
+        <v>0.0022128977692329336</v>
       </c>
       <c r="M98" t="n" s="25">
-        <v>4.021865137251939E-12</v>
+        <v>9.764469121333161E-14</v>
       </c>
       <c r="N98" t="n" s="25">
         <v>0.5</v>
@@ -3982,31 +3982,31 @@
         <v>99.0</v>
       </c>
       <c r="E99" t="n" s="25">
-        <v>0.998834647751979</v>
+        <v>0.9985299348754908</v>
       </c>
       <c r="F99" t="n" s="25">
-        <v>0.9999863691165479</v>
+        <v>0.9999467089887727</v>
       </c>
       <c r="G99" t="n" s="25">
-        <v>0.9999975220282842</v>
+        <v>0.9999376119997181</v>
       </c>
       <c r="H99" t="n" s="25">
-        <v>0.9949770374241151</v>
+        <v>0.9905931086988703</v>
       </c>
       <c r="I99" t="n" s="25">
-        <v>0.9995287844708857</v>
+        <v>0.9940475239891214</v>
       </c>
       <c r="J99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9979420496383138</v>
       </c>
       <c r="K99" t="n" s="25">
-        <v>0.904055191234067</v>
+        <v>0.7954706302932736</v>
       </c>
       <c r="L99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.8086260283043367</v>
       </c>
       <c r="M99" t="n" s="25">
-        <v>1.0</v>
+        <v>0.024498902868780897</v>
       </c>
       <c r="N99" t="n" s="25">
         <v>0.5</v>
@@ -4017,31 +4017,31 @@
         <v>100.0</v>
       </c>
       <c r="E100" t="n" s="25">
-        <v>0.9656129994971878</v>
+        <v>0.9590369196270285</v>
       </c>
       <c r="F100" t="n" s="25">
-        <v>0.4957250201902314</v>
+        <v>0.43622573331258313</v>
       </c>
       <c r="G100" t="n" s="25">
-        <v>0.054732785214111915</v>
+        <v>0.032866423971378185</v>
       </c>
       <c r="H100" t="n" s="25">
-        <v>0.42770452046191987</v>
+        <v>0.3784584900071978</v>
       </c>
       <c r="I100" t="n" s="25">
-        <v>0.07347472063481163</v>
+        <v>0.03020463797130393</v>
       </c>
       <c r="J100" t="n" s="25">
-        <v>1.715367800040542E-9</v>
+        <v>2.7484418302783804E-10</v>
       </c>
       <c r="K100" t="n" s="25">
-        <v>0.07689307045845763</v>
+        <v>0.055190591900590016</v>
       </c>
       <c r="L100" t="n" s="25">
-        <v>2.989995173870671E-8</v>
+        <v>5.046149447159524E-9</v>
       </c>
       <c r="M100" t="n" s="25">
-        <v>4.386998645349374E-27</v>
+        <v>3.3894159116270886E-28</v>
       </c>
       <c r="N100" t="n" s="25">
         <v>0.5</v>
@@ -4052,31 +4052,31 @@
         <v>101.0</v>
       </c>
       <c r="E101" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F101" t="n" s="25">
-        <v>0.9999681432937092</v>
+        <v>0.999892033214316</v>
       </c>
       <c r="G101" t="n" s="25">
-        <v>0.9999986995076796</v>
+        <v>0.9999776350324243</v>
       </c>
       <c r="H101" t="n" s="25">
-        <v>0.9999166642102469</v>
+        <v>0.9997673264374483</v>
       </c>
       <c r="I101" t="n" s="25">
-        <v>0.9999999989439959</v>
+        <v>0.9999999273859781</v>
       </c>
       <c r="J101" t="n" s="25">
-        <v>0.9999999683747105</v>
+        <v>0.9999963540609833</v>
       </c>
       <c r="K101" t="n" s="25">
-        <v>0.9999300593255959</v>
+        <v>0.9994930425589926</v>
       </c>
       <c r="L101" t="n" s="25">
-        <v>0.9999941347771745</v>
+        <v>0.9998255436310103</v>
       </c>
       <c r="M101" t="n" s="25">
-        <v>0.9990126135184181</v>
+        <v>0.948168497724834</v>
       </c>
       <c r="N101" t="n" s="25">
         <v>0.5</v>
@@ -4087,31 +4087,31 @@
         <v>102.0</v>
       </c>
       <c r="E102" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F102" t="n" s="25">
-        <v>0.9900505910256209</v>
+        <v>0.9801954619761308</v>
       </c>
       <c r="G102" t="n" s="25">
-        <v>0.47559689040961795</v>
+        <v>0.35680019351823977</v>
       </c>
       <c r="H102" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I102" t="n" s="25">
-        <v>0.9864650410968585</v>
+        <v>0.964308069579334</v>
       </c>
       <c r="J102" t="n" s="25">
-        <v>0.0029126648184999164</v>
+        <v>3.4880509072165354E-4</v>
       </c>
       <c r="K102" t="n" s="25">
-        <v>0.8663357738175391</v>
+        <v>0.8245837743818166</v>
       </c>
       <c r="L102" t="n" s="25">
-        <v>0.06118836913709885</v>
+        <v>0.012937115535217923</v>
       </c>
       <c r="M102" t="n" s="25">
-        <v>1.4873293629072417E-16</v>
+        <v>6.71489417319104E-18</v>
       </c>
       <c r="N102" t="n" s="25">
         <v>0.5</v>
@@ -4122,31 +4122,31 @@
         <v>103.0</v>
       </c>
       <c r="E103" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F103" t="n" s="25">
-        <v>0.9975376270719931</v>
+        <v>0.9945532003735782</v>
       </c>
       <c r="G103" t="n" s="25">
-        <v>0.4981787971012458</v>
+        <v>0.41001479749122827</v>
       </c>
       <c r="H103" t="n" s="25">
-        <v>0.9986548953130756</v>
+        <v>0.9972194461189527</v>
       </c>
       <c r="I103" t="n" s="25">
-        <v>0.9973897786850889</v>
+        <v>0.992189252570832</v>
       </c>
       <c r="J103" t="n" s="25">
-        <v>8.467689432167885E-4</v>
+        <v>1.803959290858401E-4</v>
       </c>
       <c r="K103" t="n" s="25">
-        <v>0.7595221366941594</v>
+        <v>0.7285532606220972</v>
       </c>
       <c r="L103" t="n" s="25">
-        <v>0.0036405045774417417</v>
+        <v>0.0014399505309379559</v>
       </c>
       <c r="M103" t="n" s="25">
-        <v>2.019982708749703E-20</v>
+        <v>2.439839195247964E-21</v>
       </c>
       <c r="N103" t="n" s="25">
         <v>0.5</v>
@@ -4157,31 +4157,31 @@
         <v>104.0</v>
       </c>
       <c r="E104" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F104" t="n" s="25">
-        <v>0.9900505910256209</v>
+        <v>0.9801954619761308</v>
       </c>
       <c r="G104" t="n" s="25">
-        <v>0.4755471425989367</v>
+        <v>0.35677953436287974</v>
       </c>
       <c r="H104" t="n" s="25">
-        <v>0.9941947667940023</v>
+        <v>0.9894077807465312</v>
       </c>
       <c r="I104" t="n" s="25">
-        <v>0.9864138688865842</v>
+        <v>0.964244312185244</v>
       </c>
       <c r="J104" t="n" s="25">
-        <v>0.0013128022323690477</v>
+        <v>1.5699240868643515E-4</v>
       </c>
       <c r="K104" t="n" s="25">
-        <v>0.7268399861439562</v>
+        <v>0.6972435261021667</v>
       </c>
       <c r="L104" t="n" s="25">
-        <v>0.0022713970007118087</v>
+        <v>8.858337257142699E-4</v>
       </c>
       <c r="M104" t="n" s="25">
-        <v>2.5974484435429256E-19</v>
+        <v>2.2625678533995106E-20</v>
       </c>
       <c r="N104" t="n" s="25">
         <v>0.5</v>
@@ -4192,31 +4192,31 @@
         <v>105.0</v>
       </c>
       <c r="E105" t="n" s="25">
-        <v>0.999228811395408</v>
+        <v>0.9989797396748005</v>
       </c>
       <c r="F105" t="n" s="25">
-        <v>0.999564283822047</v>
+        <v>0.99868746897305</v>
       </c>
       <c r="G105" t="n" s="25">
-        <v>0.9941113806990731</v>
+        <v>0.9833085810246222</v>
       </c>
       <c r="H105" t="n" s="25">
-        <v>0.9934452675675348</v>
+        <v>0.9866688678932425</v>
       </c>
       <c r="I105" t="n" s="25">
-        <v>0.9921838942081598</v>
+        <v>0.9778205178355489</v>
       </c>
       <c r="J105" t="n" s="25">
-        <v>0.6383839826842773</v>
+        <v>0.13856034738607156</v>
       </c>
       <c r="K105" t="n" s="25">
-        <v>0.4239445931754507</v>
+        <v>0.37500006885915915</v>
       </c>
       <c r="L105" t="n" s="25">
-        <v>0.0011650069489905354</v>
+        <v>4.1557028344193825E-4</v>
       </c>
       <c r="M105" t="n" s="25">
-        <v>6.642507371088593E-15</v>
+        <v>3.0966456338364585E-16</v>
       </c>
       <c r="N105" t="n" s="25">
         <v>0.5</v>
@@ -4227,31 +4227,31 @@
         <v>106.0</v>
       </c>
       <c r="E106" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F106" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G106" t="n" s="25">
-        <v>0.28421246311974513</v>
+        <v>0.2175096083913821</v>
       </c>
       <c r="H106" t="n" s="25">
-        <v>0.9960536559577932</v>
+        <v>0.9923172711013277</v>
       </c>
       <c r="I106" t="n" s="25">
-        <v>0.9864194064182489</v>
+        <v>0.9642494231194635</v>
       </c>
       <c r="J106" t="n" s="25">
-        <v>5.472628727337851E-5</v>
+        <v>1.1280772209637084E-5</v>
       </c>
       <c r="K106" t="n" s="25">
-        <v>0.8659790256913743</v>
+        <v>0.8243588853267616</v>
       </c>
       <c r="L106" t="n" s="25">
-        <v>0.016032860734538117</v>
+        <v>0.0032659680381539767</v>
       </c>
       <c r="M106" t="n" s="25">
-        <v>3.3671030162234946E-20</v>
+        <v>2.476421395142926E-21</v>
       </c>
       <c r="N106" t="n" s="25">
         <v>0.5</v>
@@ -4262,31 +4262,31 @@
         <v>107.0</v>
       </c>
       <c r="E107" t="n" s="25">
-        <v>0.9951014904221526</v>
+        <v>0.9938452309769681</v>
       </c>
       <c r="F107" t="n" s="25">
-        <v>0.9912174091509862</v>
+        <v>0.9812243553546738</v>
       </c>
       <c r="G107" t="n" s="25">
-        <v>0.6193637065887254</v>
+        <v>0.5387509944088752</v>
       </c>
       <c r="H107" t="n" s="25">
-        <v>0.9977062551633364</v>
+        <v>0.9940846041556035</v>
       </c>
       <c r="I107" t="n" s="25">
-        <v>0.9951693065565387</v>
+        <v>0.9838113189605435</v>
       </c>
       <c r="J107" t="n" s="25">
-        <v>0.0291125248543047</v>
+        <v>0.006012683701729396</v>
       </c>
       <c r="K107" t="n" s="25">
-        <v>0.9544102243974123</v>
+        <v>0.9090352920388389</v>
       </c>
       <c r="L107" t="n" s="25">
-        <v>0.7619575447097285</v>
+        <v>0.20989216053092138</v>
       </c>
       <c r="M107" t="n" s="25">
-        <v>1.5897890990761815E-13</v>
+        <v>4.077179190240576E-15</v>
       </c>
       <c r="N107" t="n" s="25">
         <v>0.5</v>
@@ -4297,31 +4297,31 @@
         <v>108.0</v>
       </c>
       <c r="E108" t="n" s="25">
-        <v>0.9991266853866273</v>
+        <v>0.9988616642434736</v>
       </c>
       <c r="F108" t="n" s="25">
-        <v>0.999999486991193</v>
+        <v>0.9999973064486107</v>
       </c>
       <c r="G108" t="n" s="25">
-        <v>0.9999999999997284</v>
+        <v>0.9999999999557527</v>
       </c>
       <c r="H108" t="n" s="25">
-        <v>0.999935559994298</v>
+        <v>0.9998316572990058</v>
       </c>
       <c r="I108" t="n" s="25">
-        <v>0.9999999999999818</v>
+        <v>0.999999999996852</v>
       </c>
       <c r="J108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999999999987</v>
       </c>
       <c r="K108" t="n" s="25">
-        <v>0.9999334659952973</v>
+        <v>0.9996837589657341</v>
       </c>
       <c r="L108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999973377357</v>
       </c>
       <c r="M108" t="n" s="25">
-        <v>1.0</v>
+        <v>0.9999999753373793</v>
       </c>
       <c r="N108" t="n" s="25">
         <v>0.5</v>
@@ -4332,31 +4332,31 @@
         <v>109.0</v>
       </c>
       <c r="E109" t="n" s="25">
-        <v>0.9902403306843306</v>
+        <v>0.988136780499175</v>
       </c>
       <c r="F109" t="n" s="25">
-        <v>0.7258065941232898</v>
+        <v>0.6709809076013323</v>
       </c>
       <c r="G109" t="n" s="25">
-        <v>0.014822448750375779</v>
+        <v>0.01037499685415741</v>
       </c>
       <c r="H109" t="n" s="25">
-        <v>0.5985450639176643</v>
+        <v>0.5588497706694917</v>
       </c>
       <c r="I109" t="n" s="25">
-        <v>0.1346317557241983</v>
+        <v>0.06613783343666196</v>
       </c>
       <c r="J109" t="n" s="25">
-        <v>2.5761802586302377E-11</v>
+        <v>5.506837430653438E-12</v>
       </c>
       <c r="K109" t="n" s="25">
-        <v>0.1592157604859239</v>
+        <v>0.14359651911125149</v>
       </c>
       <c r="L109" t="n" s="25">
-        <v>5.938065363515515E-9</v>
+        <v>2.361304505786025E-9</v>
       </c>
       <c r="M109" t="n" s="25">
-        <v>1.0654361085978083E-31</v>
+        <v>2.16305213474431E-32</v>
       </c>
       <c r="N109" t="n" s="25">
         <v>0.5</v>
@@ -4367,31 +4367,31 @@
         <v>110.0</v>
       </c>
       <c r="E110" t="n" s="25">
-        <v>0.9990381252609083</v>
+        <v>0.9987599092022108</v>
       </c>
       <c r="F110" t="n" s="25">
-        <v>0.9987948768175072</v>
+        <v>0.9968683938902129</v>
       </c>
       <c r="G110" t="n" s="25">
-        <v>0.935431941420055</v>
+        <v>0.8552751287000984</v>
       </c>
       <c r="H110" t="n" s="25">
-        <v>0.9986548953130756</v>
+        <v>0.9972194461189527</v>
       </c>
       <c r="I110" t="n" s="25">
-        <v>0.9977652917819374</v>
+        <v>0.9925704841226305</v>
       </c>
       <c r="J110" t="n" s="25">
-        <v>0.9845679621406802</v>
+        <v>0.7109150768152432</v>
       </c>
       <c r="K110" t="n" s="25">
-        <v>0.7620101964147804</v>
+        <v>0.7302337493327593</v>
       </c>
       <c r="L110" t="n" s="25">
-        <v>0.10659082717690253</v>
+        <v>0.04496915115070874</v>
       </c>
       <c r="M110" t="n" s="25">
-        <v>1.5573574207339934E-10</v>
+        <v>3.836471206643876E-12</v>
       </c>
       <c r="N110" t="n" s="25">
         <v>0.5</v>
@@ -4402,31 +4402,31 @@
         <v>111.0</v>
       </c>
       <c r="E111" t="n" s="25">
-        <v>0.9989410232197362</v>
+        <v>0.9986495455304109</v>
       </c>
       <c r="F111" t="n" s="25">
-        <v>0.9889532321700174</v>
+        <v>0.9785954174267826</v>
       </c>
       <c r="G111" t="n" s="25">
-        <v>0.2842093528892021</v>
+        <v>0.2175081986872824</v>
       </c>
       <c r="H111" t="n" s="25">
-        <v>0.9941947667940023</v>
+        <v>0.9894077807465312</v>
       </c>
       <c r="I111" t="n" s="25">
-        <v>0.9864070314650925</v>
+        <v>0.9642339457616126</v>
       </c>
       <c r="J111" t="n" s="25">
-        <v>2.4627570549532173E-5</v>
+        <v>5.0763789903468E-6</v>
       </c>
       <c r="K111" t="n" s="25">
-        <v>0.7267686339444932</v>
+        <v>0.6971941805231897</v>
       </c>
       <c r="L111" t="n" s="25">
-        <v>5.688182592430624E-4</v>
+        <v>2.216056607544911E-4</v>
       </c>
       <c r="M111" t="n" s="25">
-        <v>5.876456341371494E-23</v>
+        <v>8.341641765660323E-24</v>
       </c>
       <c r="N111" t="n" s="25">
         <v>0.5</v>

--- a/data/old_posteriors/no_elementary_skills/complex_model/leak/constrained/results_model2a_leak_constrained.xlsx
+++ b/data/old_posteriors/no_elementary_skills/complex_model/leak/constrained/results_model2a_leak_constrained.xlsx
@@ -648,9 +648,7 @@
       <c r="M3" t="n" s="25">
         <v>0.34404857988705895</v>
       </c>
-      <c r="N3" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N3" s="25"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -683,9 +681,7 @@
       <c r="M4" t="n" s="25">
         <v>0.9999980842782994</v>
       </c>
-      <c r="N4" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N4" s="25"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -718,9 +714,7 @@
       <c r="M5" t="n" s="25">
         <v>0.9999999994551608</v>
       </c>
-      <c r="N5" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N5" s="25"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -753,9 +747,7 @@
       <c r="M6" t="n" s="25">
         <v>0.9999999999915357</v>
       </c>
-      <c r="N6" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N6" s="25"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -788,9 +780,7 @@
       <c r="M7" t="n" s="25">
         <v>0.9999998413746204</v>
       </c>
-      <c r="N7" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N7" s="25"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -823,9 +813,7 @@
       <c r="M8" t="n" s="25">
         <v>0.9951420085911447</v>
       </c>
-      <c r="N8" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N8" s="25"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -858,9 +846,7 @@
       <c r="M9" t="n" s="25">
         <v>0.9999999999997291</v>
       </c>
-      <c r="N9" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N9" s="25"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -893,9 +879,7 @@
       <c r="M10" t="n" s="25">
         <v>0.9999999581414185</v>
       </c>
-      <c r="N10" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N10" s="25"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -928,9 +912,7 @@
       <c r="M11" t="n" s="25">
         <v>0.9999932550697082</v>
       </c>
-      <c r="N11" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N11" s="25"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -963,9 +945,7 @@
       <c r="M12" t="n" s="25">
         <v>0.9999999999997291</v>
       </c>
-      <c r="N12" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N12" s="25"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -998,9 +978,7 @@
       <c r="M13" t="n" s="25">
         <v>0.02802812337901185</v>
       </c>
-      <c r="N13" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N13" s="25"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -1033,9 +1011,7 @@
       <c r="M14" t="n" s="25">
         <v>7.905666866565522E-11</v>
       </c>
-      <c r="N14" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N14" s="25"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -1068,9 +1044,7 @@
       <c r="M15" t="n" s="25">
         <v>0.0282612468212398</v>
       </c>
-      <c r="N15" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N15" s="25"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -1103,9 +1077,7 @@
       <c r="M16" t="n" s="25">
         <v>0.9999807658828904</v>
       </c>
-      <c r="N16" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N16" s="25"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -1138,9 +1110,7 @@
       <c r="M17" t="n" s="25">
         <v>0.9999999966695075</v>
       </c>
-      <c r="N17" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N17" s="25"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1173,9 +1143,7 @@
       <c r="M18" t="n" s="25">
         <v>0.9999999999999718</v>
       </c>
-      <c r="N18" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N18" s="25"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1208,9 +1176,7 @@
       <c r="M19" t="n" s="25">
         <v>0.9999999999915357</v>
       </c>
-      <c r="N19" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N19" s="25"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1243,9 +1209,7 @@
       <c r="M20" t="n" s="25">
         <v>0.9999999994551608</v>
       </c>
-      <c r="N20" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N20" s="25"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1278,9 +1242,7 @@
       <c r="M21" t="n" s="25">
         <v>0.9999999999999994</v>
       </c>
-      <c r="N21" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N21" s="25"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1313,9 +1275,7 @@
       <c r="M22" t="n" s="25">
         <v>0.9999999999878658</v>
       </c>
-      <c r="N22" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N22" s="25"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1348,9 +1308,7 @@
       <c r="M23" t="n" s="25">
         <v>0.9999999999987375</v>
       </c>
-      <c r="N23" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N23" s="25"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1383,9 +1341,7 @@
       <c r="M24" t="n" s="25">
         <v>0.9999999999878658</v>
       </c>
-      <c r="N24" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N24" s="25"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1418,9 +1374,7 @@
       <c r="M25" t="n" s="25">
         <v>0.999999981974313</v>
       </c>
-      <c r="N25" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N25" s="25"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1453,9 +1407,7 @@
       <c r="M26" t="n" s="25">
         <v>1.842409063825045E-9</v>
       </c>
-      <c r="N26" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N26" s="25"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1488,9 +1440,7 @@
       <c r="M27" t="n" s="25">
         <v>3.035501670107739E-14</v>
       </c>
-      <c r="N27" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N27" s="25"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1523,9 +1473,7 @@
       <c r="M28" t="n" s="25">
         <v>0.9999985992735471</v>
       </c>
-      <c r="N28" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N28" s="25"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1558,9 +1506,7 @@
       <c r="M29" t="n" s="25">
         <v>0.9963391842957463</v>
       </c>
-      <c r="N29" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N29" s="25"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1593,9 +1539,7 @@
       <c r="M30" t="n" s="25">
         <v>5.936679621121393E-24</v>
       </c>
-      <c r="N30" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N30" s="25"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1628,9 +1572,7 @@
       <c r="M31" t="n" s="25">
         <v>0.9999999999998109</v>
       </c>
-      <c r="N31" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N31" s="25"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1663,9 +1605,7 @@
       <c r="M32" t="n" s="25">
         <v>7.465435843400187E-26</v>
       </c>
-      <c r="N32" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N32" s="25"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1698,9 +1638,7 @@
       <c r="M33" t="n" s="25">
         <v>1.407108744810687E-37</v>
       </c>
-      <c r="N33" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N33" s="25"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1733,9 +1671,7 @@
       <c r="M34" t="n" s="25">
         <v>2.4764213951429273E-21</v>
       </c>
-      <c r="N34" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N34" s="25"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1768,9 +1704,7 @@
       <c r="M35" t="n" s="25">
         <v>1.2663334253626261E-50</v>
       </c>
-      <c r="N35" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N35" s="25"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1803,9 +1737,7 @@
       <c r="M36" t="n" s="25">
         <v>8.341641765660323E-24</v>
       </c>
-      <c r="N36" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N36" s="25"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1838,9 +1770,7 @@
       <c r="M37" t="n" s="25">
         <v>2.4764213951429273E-21</v>
       </c>
-      <c r="N37" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N37" s="25"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1873,9 +1803,7 @@
       <c r="M38" t="n" s="25">
         <v>5.764801435710343E-5</v>
       </c>
-      <c r="N38" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N38" s="25"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1908,9 +1836,7 @@
       <c r="M39" t="n" s="25">
         <v>2.476421395142926E-21</v>
       </c>
-      <c r="N39" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N39" s="25"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1943,9 +1869,7 @@
       <c r="M40" t="n" s="25">
         <v>2.347605398591629E-24</v>
       </c>
-      <c r="N40" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N40" s="25"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1978,9 +1902,7 @@
       <c r="M41" t="n" s="25">
         <v>0.9999999964359577</v>
       </c>
-      <c r="N41" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N41" s="25"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -2013,9 +1935,7 @@
       <c r="M42" t="n" s="25">
         <v>2.4256851436586592E-37</v>
       </c>
-      <c r="N42" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N42" s="25"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -2048,9 +1968,7 @@
       <c r="M43" t="n" s="25">
         <v>3.6666418527090536E-21</v>
       </c>
-      <c r="N43" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N43" s="25"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -2083,9 +2001,7 @@
       <c r="M44" t="n" s="25">
         <v>1.8957669455275073E-18</v>
       </c>
-      <c r="N44" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N44" s="25"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -2118,9 +2034,7 @@
       <c r="M45" t="n" s="25">
         <v>7.241410659898917E-19</v>
       </c>
-      <c r="N45" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N45" s="25"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -2153,9 +2067,7 @@
       <c r="M46" t="n" s="25">
         <v>2.5396034959131634E-69</v>
       </c>
-      <c r="N46" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N46" s="25"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -2188,9 +2100,7 @@
       <c r="M47" t="n" s="25">
         <v>3.995919288780667E-40</v>
       </c>
-      <c r="N47" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N47" s="25"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2223,9 +2133,7 @@
       <c r="M48" t="n" s="25">
         <v>1.3913027955046653E-37</v>
       </c>
-      <c r="N48" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N48" s="25"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2258,9 +2166,7 @@
       <c r="M49" t="n" s="25">
         <v>9.749730194353266E-29</v>
       </c>
-      <c r="N49" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N49" s="25"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2293,9 +2199,7 @@
       <c r="M50" t="n" s="25">
         <v>6.164570113249175E-40</v>
       </c>
-      <c r="N50" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N50" s="25"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2328,9 +2232,7 @@
       <c r="M51" t="n" s="25">
         <v>8.428367030238944E-65</v>
       </c>
-      <c r="N51" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N51" s="25"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2363,9 +2265,7 @@
       <c r="M52" t="n" s="25">
         <v>3.206068757770497E-24</v>
       </c>
-      <c r="N52" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N52" s="25"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2398,9 +2298,7 @@
       <c r="M53" t="n" s="25">
         <v>0.22601896918652997</v>
       </c>
-      <c r="N53" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N53" s="25"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2433,9 +2331,7 @@
       <c r="M54" t="n" s="25">
         <v>0.9999091979456145</v>
       </c>
-      <c r="N54" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N54" s="25"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2468,9 +2364,7 @@
       <c r="M55" t="n" s="25">
         <v>5.0719569925856674E-8</v>
       </c>
-      <c r="N55" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N55" s="25"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2503,9 +2397,7 @@
       <c r="M56" t="n" s="25">
         <v>0.9999999999915357</v>
       </c>
-      <c r="N56" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N56" s="25"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2538,9 +2430,7 @@
       <c r="M57" t="n" s="25">
         <v>1.3857860837026144E-7</v>
       </c>
-      <c r="N57" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N57" s="25"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2573,9 +2463,7 @@
       <c r="M58" t="n" s="25">
         <v>0.9951420085911447</v>
       </c>
-      <c r="N58" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N58" s="25"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2608,9 +2496,7 @@
       <c r="M59" t="n" s="25">
         <v>0.007154595675641255</v>
       </c>
-      <c r="N59" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N59" s="25"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2643,9 +2529,7 @@
       <c r="M60" t="n" s="25">
         <v>0.9999988571200815</v>
       </c>
-      <c r="N60" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N60" s="25"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2678,9 +2562,7 @@
       <c r="M61" t="n" s="25">
         <v>0.948168497724834</v>
       </c>
-      <c r="N61" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N61" s="25"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2713,9 +2595,7 @@
       <c r="M62" t="n" s="25">
         <v>0.9180815881332332</v>
       </c>
-      <c r="N62" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N62" s="25"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2748,9 +2628,7 @@
       <c r="M63" t="n" s="25">
         <v>0.997715115441243</v>
       </c>
-      <c r="N63" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N63" s="25"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2783,9 +2661,7 @@
       <c r="M64" t="n" s="25">
         <v>0.9999980842782994</v>
       </c>
-      <c r="N64" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N64" s="25"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2818,9 +2694,7 @@
       <c r="M65" t="n" s="25">
         <v>0.9962348742086264</v>
       </c>
-      <c r="N65" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N65" s="25"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2853,9 +2727,7 @@
       <c r="M66" t="n" s="25">
         <v>1.3684899976045575E-27</v>
       </c>
-      <c r="N66" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N66" s="25"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2888,9 +2760,7 @@
       <c r="M67" t="n" s="25">
         <v>3.3229886069764784E-9</v>
       </c>
-      <c r="N67" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N67" s="25"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2923,9 +2793,7 @@
       <c r="M68" t="n" s="25">
         <v>0.15619299964158265</v>
       </c>
-      <c r="N68" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N68" s="25"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2958,9 +2826,7 @@
       <c r="M69" t="n" s="25">
         <v>2.4524063774043225E-37</v>
       </c>
-      <c r="N69" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N69" s="25"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2993,9 +2859,7 @@
       <c r="M70" t="n" s="25">
         <v>1.5130629188175633E-12</v>
       </c>
-      <c r="N70" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N70" s="25"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -3028,9 +2892,7 @@
       <c r="M71" t="n" s="25">
         <v>5.779814431046338E-32</v>
       </c>
-      <c r="N71" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N71" s="25"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -3063,9 +2925,7 @@
       <c r="M72" t="n" s="25">
         <v>4.056339473734922E-11</v>
       </c>
-      <c r="N72" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N72" s="25"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -3098,9 +2958,7 @@
       <c r="M73" t="n" s="25">
         <v>3.4081716127034547E-29</v>
       </c>
-      <c r="N73" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N73" s="25"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -3133,9 +2991,7 @@
       <c r="M74" t="n" s="25">
         <v>0.9999084594401062</v>
       </c>
-      <c r="N74" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N74" s="25"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -3168,9 +3024,7 @@
       <c r="M75" t="n" s="25">
         <v>0.9701451305939345</v>
       </c>
-      <c r="N75" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N75" s="25"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -3203,9 +3057,7 @@
       <c r="M76" t="n" s="25">
         <v>2.189471996939436E-15</v>
       </c>
-      <c r="N76" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N76" s="25"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -3238,9 +3090,7 @@
       <c r="M77" t="n" s="25">
         <v>8.117152069341913E-34</v>
       </c>
-      <c r="N77" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N77" s="25"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -3273,9 +3123,7 @@
       <c r="M78" t="n" s="25">
         <v>1.6891932415038534E-9</v>
       </c>
-      <c r="N78" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N78" s="25"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3308,9 +3156,7 @@
       <c r="M79" t="n" s="25">
         <v>2.9116626830881655E-8</v>
       </c>
-      <c r="N79" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N79" s="25"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3343,9 +3189,7 @@
       <c r="M80" t="n" s="25">
         <v>4.2090224647683075E-21</v>
       </c>
-      <c r="N80" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N80" s="25"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3378,9 +3222,7 @@
       <c r="M81" t="n" s="25">
         <v>1.4615756595939216E-23</v>
       </c>
-      <c r="N81" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N81" s="25"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3413,9 +3255,7 @@
       <c r="M82" t="n" s="25">
         <v>2.2625678533995106E-20</v>
       </c>
-      <c r="N82" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N82" s="25"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3448,9 +3288,7 @@
       <c r="M83" t="n" s="25">
         <v>8.341641765660323E-24</v>
       </c>
-      <c r="N83" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N83" s="25"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3483,9 +3321,7 @@
       <c r="M84" t="n" s="25">
         <v>0.9986844979411011</v>
       </c>
-      <c r="N84" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N84" s="25"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3518,9 +3354,7 @@
       <c r="M85" t="n" s="25">
         <v>0.9999980842782994</v>
       </c>
-      <c r="N85" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N85" s="25"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3553,9 +3387,7 @@
       <c r="M86" t="n" s="25">
         <v>0.03760935095773386</v>
       </c>
-      <c r="N86" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N86" s="25"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3588,9 +3420,7 @@
       <c r="M87" t="n" s="25">
         <v>0.9711295390446961</v>
       </c>
-      <c r="N87" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N87" s="25"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3623,9 +3453,7 @@
       <c r="M88" t="n" s="25">
         <v>1.1306990508164049E-26</v>
       </c>
-      <c r="N88" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N88" s="25"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3658,9 +3486,7 @@
       <c r="M89" t="n" s="25">
         <v>0.008408127066396919</v>
       </c>
-      <c r="N89" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N89" s="25"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3693,9 +3519,7 @@
       <c r="M90" t="n" s="25">
         <v>0.2289225101234238</v>
       </c>
-      <c r="N90" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N90" s="25"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3728,9 +3552,7 @@
       <c r="M91" t="n" s="25">
         <v>8.855781090115909E-25</v>
       </c>
-      <c r="N91" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N91" s="25"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3763,9 +3585,7 @@
       <c r="M92" t="n" s="25">
         <v>0.6214633880657419</v>
       </c>
-      <c r="N92" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N92" s="25"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3798,9 +3618,7 @@
       <c r="M93" t="n" s="25">
         <v>2.3013343647543352E-14</v>
       </c>
-      <c r="N93" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N93" s="25"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3833,9 +3651,7 @@
       <c r="M94" t="n" s="25">
         <v>0.9999084594401062</v>
       </c>
-      <c r="N94" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N94" s="25"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3868,9 +3684,7 @@
       <c r="M95" t="n" s="25">
         <v>8.429174491544497E-15</v>
       </c>
-      <c r="N95" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N95" s="25"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3903,9 +3717,7 @@
       <c r="M96" t="n" s="25">
         <v>0.0034597005678284145</v>
       </c>
-      <c r="N96" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N96" s="25"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3938,9 +3750,7 @@
       <c r="M97" t="n" s="25">
         <v>0.9946437002774654</v>
       </c>
-      <c r="N97" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N97" s="25"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3973,9 +3783,7 @@
       <c r="M98" t="n" s="25">
         <v>9.764469121333161E-14</v>
       </c>
-      <c r="N98" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N98" s="25"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -4008,9 +3816,7 @@
       <c r="M99" t="n" s="25">
         <v>0.024498902868780897</v>
       </c>
-      <c r="N99" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N99" s="25"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -4043,9 +3849,7 @@
       <c r="M100" t="n" s="25">
         <v>3.3894159116270886E-28</v>
       </c>
-      <c r="N100" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N100" s="25"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -4078,9 +3882,7 @@
       <c r="M101" t="n" s="25">
         <v>0.948168497724834</v>
       </c>
-      <c r="N101" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N101" s="25"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -4113,9 +3915,7 @@
       <c r="M102" t="n" s="25">
         <v>6.71489417319104E-18</v>
       </c>
-      <c r="N102" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N102" s="25"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -4148,9 +3948,7 @@
       <c r="M103" t="n" s="25">
         <v>2.439839195247964E-21</v>
       </c>
-      <c r="N103" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N103" s="25"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -4183,9 +3981,7 @@
       <c r="M104" t="n" s="25">
         <v>2.2625678533995106E-20</v>
       </c>
-      <c r="N104" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N104" s="25"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -4218,9 +4014,7 @@
       <c r="M105" t="n" s="25">
         <v>3.0966456338364585E-16</v>
       </c>
-      <c r="N105" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N105" s="25"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -4253,9 +4047,7 @@
       <c r="M106" t="n" s="25">
         <v>2.476421395142926E-21</v>
       </c>
-      <c r="N106" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N106" s="25"/>
     </row>
     <row r="107">
       <c r="A107" t="n">
@@ -4288,9 +4080,7 @@
       <c r="M107" t="n" s="25">
         <v>4.077179190240576E-15</v>
       </c>
-      <c r="N107" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N107" s="25"/>
     </row>
     <row r="108">
       <c r="A108" t="n">
@@ -4323,9 +4113,7 @@
       <c r="M108" t="n" s="25">
         <v>0.9999999753373793</v>
       </c>
-      <c r="N108" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N108" s="25"/>
     </row>
     <row r="109">
       <c r="A109" t="n">
@@ -4358,9 +4146,7 @@
       <c r="M109" t="n" s="25">
         <v>2.16305213474431E-32</v>
       </c>
-      <c r="N109" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N109" s="25"/>
     </row>
     <row r="110">
       <c r="A110" t="n">
@@ -4393,9 +4179,7 @@
       <c r="M110" t="n" s="25">
         <v>3.836471206643876E-12</v>
       </c>
-      <c r="N110" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N110" s="25"/>
     </row>
     <row r="111">
       <c r="A111" t="n">
@@ -4428,9 +4212,7 @@
       <c r="M111" t="n" s="25">
         <v>8.341641765660323E-24</v>
       </c>
-      <c r="N111" t="n" s="25">
-        <v>0.5</v>
-      </c>
+      <c r="N111" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="4">
